--- a/Excell/ProductList.xlsx
+++ b/Excell/ProductList.xlsx
@@ -8,15 +8,18 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\TFS\B2BSystem\File\SPs\B2BSPs\Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9869F82C-25C7-4D00-B52F-49134AAA45D7}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E08A49-8F16-4983-8850-D68328A58EBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{82620085-FAFC-4ED1-BFEA-ABD1FA265859}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{82620085-FAFC-4ED1-BFEA-ABD1FA265859}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="2" r:id="rId1"/>
-    <sheet name="upload" sheetId="1" r:id="rId2"/>
-    <sheet name="Details" sheetId="3" r:id="rId3"/>
-    <sheet name="Master" sheetId="4" r:id="rId4"/>
+    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
+    <sheet name="upload" sheetId="1" r:id="rId3"/>
+    <sheet name="Details" sheetId="3" r:id="rId4"/>
+    <sheet name="asdas" sheetId="4" r:id="rId5"/>
+    <sheet name="Best selling" sheetId="6" r:id="rId6"/>
+    <sheet name="NEw Arrivals" sheetId="7" r:id="rId7"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$B$1:$M$1</definedName>
@@ -37,7 +40,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4238" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="911">
   <si>
     <t>CPU Socket Type</t>
   </si>
@@ -3228,7 +3231,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F38F52-AEA6-4DE9-AD73-40A77B36D22E}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
       <selection activeCell="J8" sqref="J8"/>
     </sheetView>
   </sheetViews>
@@ -5384,6 +5387,18 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C4ACDB-6575-4705-80B1-CCB2FBD40429}">
+  <dimension ref="A1"/>
+  <sheetViews>
+    <sheetView workbookViewId="0"/>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetData/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E5A6C1-5790-4229-BD6D-6C1D6B8C5F92}">
   <dimension ref="A1:D993"/>
   <sheetViews>
@@ -19105,7 +19120,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA65A9EE-F120-4224-BB6A-B1C8A3207C0B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -19144,12 +19159,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082A44F4-F353-40AF-86C8-63795D4AA594}">
   <dimension ref="A1:J1"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection sqref="A1:J1"/>
+      <selection activeCell="B6" sqref="B6"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19189,4 +19204,192 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139DF530-8D05-409C-BC83-56BCC2986C8B}">
+  <dimension ref="B1:C9"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C1" sqref="C1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="52.7109375" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>2</v>
+      </c>
+      <c r="C1" t="s">
+        <v>57</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>13</v>
+      </c>
+      <c r="C2" t="s">
+        <v>896</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>14</v>
+      </c>
+      <c r="C3" t="s">
+        <v>900</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>17</v>
+      </c>
+      <c r="C4" t="s">
+        <v>894</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>20</v>
+      </c>
+      <c r="C5" t="s">
+        <v>250</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>23</v>
+      </c>
+      <c r="C6" t="s">
+        <v>908</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>26</v>
+      </c>
+      <c r="C7" t="s">
+        <v>244</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>31</v>
+      </c>
+      <c r="C8" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>41</v>
+      </c>
+      <c r="C9" t="s">
+        <v>905</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB7A543-B053-4FEF-8DF9-350D0D8F8008}">
+  <dimension ref="B1:C10"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection sqref="A1:A10"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="3" max="3" width="44.140625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B1">
+        <v>3</v>
+      </c>
+      <c r="C1" t="s">
+        <v>104</v>
+      </c>
+    </row>
+    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B2">
+        <v>4</v>
+      </c>
+      <c r="C2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B3">
+        <v>5</v>
+      </c>
+      <c r="C3" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B4">
+        <v>15</v>
+      </c>
+      <c r="C4" t="s">
+        <v>901</v>
+      </c>
+    </row>
+    <row r="5" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B5">
+        <v>18</v>
+      </c>
+      <c r="C5" t="s">
+        <v>895</v>
+      </c>
+    </row>
+    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B6">
+        <v>21</v>
+      </c>
+      <c r="C6" t="s">
+        <v>887</v>
+      </c>
+    </row>
+    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B7">
+        <v>24</v>
+      </c>
+      <c r="C7" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B8">
+        <v>27</v>
+      </c>
+      <c r="C8" t="s">
+        <v>114</v>
+      </c>
+    </row>
+    <row r="9" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B9">
+        <v>32</v>
+      </c>
+      <c r="C9" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="10" spans="2:3" x14ac:dyDescent="0.25">
+      <c r="B10">
+        <v>42</v>
+      </c>
+      <c r="C10" t="s">
+        <v>903</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>
--- a/Excell/ProductList.xlsx
+++ b/Excell/ProductList.xlsx
@@ -8,18 +8,17 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\TFS\B2BSystem\File\SPs\B2BSPs\Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{F8E08A49-8F16-4983-8850-D68328A58EBB}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419FF527-4828-43D4-AD36-566394F605BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="5" xr2:uid="{82620085-FAFC-4ED1-BFEA-ABD1FA265859}"/>
+    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{82620085-FAFC-4ED1-BFEA-ABD1FA265859}"/>
   </bookViews>
   <sheets>
     <sheet name="List" sheetId="2" r:id="rId1"/>
-    <sheet name="Sheet1" sheetId="5" r:id="rId2"/>
-    <sheet name="upload" sheetId="1" r:id="rId3"/>
-    <sheet name="Details" sheetId="3" r:id="rId4"/>
-    <sheet name="asdas" sheetId="4" r:id="rId5"/>
-    <sheet name="Best selling" sheetId="6" r:id="rId6"/>
-    <sheet name="NEw Arrivals" sheetId="7" r:id="rId7"/>
+    <sheet name="upload" sheetId="1" r:id="rId2"/>
+    <sheet name="Details" sheetId="3" r:id="rId3"/>
+    <sheet name="asdas" sheetId="4" r:id="rId4"/>
+    <sheet name="Best selling" sheetId="6" r:id="rId5"/>
+    <sheet name="NEw Arrivals" sheetId="7" r:id="rId6"/>
   </sheets>
   <definedNames>
     <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$B$1:$M$1</definedName>
@@ -5387,23 +5386,11 @@
 </file>
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98C4ACDB-6575-4705-80B1-CCB2FBD40429}">
-  <dimension ref="A1"/>
-  <sheetViews>
-    <sheetView workbookViewId="0"/>
-  </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
-  <sheetData/>
-  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
-</worksheet>
-</file>
-
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E5A6C1-5790-4229-BD6D-6C1D6B8C5F92}">
   <dimension ref="A1:D993"/>
   <sheetViews>
-    <sheetView topLeftCell="A878" workbookViewId="0">
-      <selection activeCell="D980" sqref="D980"/>
+    <sheetView tabSelected="1" topLeftCell="A962" workbookViewId="0">
+      <selection activeCell="A989" sqref="A989"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19120,7 +19107,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA65A9EE-F120-4224-BB6A-B1C8A3207C0B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -19159,7 +19146,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082A44F4-F353-40AF-86C8-63795D4AA594}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -19206,11 +19193,11 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139DF530-8D05-409C-BC83-56BCC2986C8B}">
   <dimension ref="B1:C9"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="C1" sqref="C1"/>
     </sheetView>
   </sheetViews>
@@ -19296,7 +19283,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB7A543-B053-4FEF-8DF9-350D0D8F8008}">
   <dimension ref="B1:C10"/>
   <sheetViews>

--- a/Excell/ProductList.xlsx
+++ b/Excell/ProductList.xlsx
@@ -1,27 +1,29 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21727"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="21901"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="I:\TFS\B2BSystem\File\SPs\B2BSPs\Excell\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{419FF527-4828-43D4-AD36-566394F605BA}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{D8440203-EC22-456D-82AC-E0C383A537C6}" xr6:coauthVersionLast="43" xr6:coauthVersionMax="43" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" activeTab="1" xr2:uid="{82620085-FAFC-4ED1-BFEA-ABD1FA265859}"/>
+    <workbookView xWindow="2475" yWindow="3315" windowWidth="21600" windowHeight="11385" activeTab="1" xr2:uid="{82620085-FAFC-4ED1-BFEA-ABD1FA265859}"/>
   </bookViews>
   <sheets>
-    <sheet name="List" sheetId="2" r:id="rId1"/>
-    <sheet name="upload" sheetId="1" r:id="rId2"/>
-    <sheet name="Details" sheetId="3" r:id="rId3"/>
-    <sheet name="asdas" sheetId="4" r:id="rId4"/>
-    <sheet name="Best selling" sheetId="6" r:id="rId5"/>
-    <sheet name="NEw Arrivals" sheetId="7" r:id="rId6"/>
+    <sheet name="ListNew" sheetId="8" r:id="rId1"/>
+    <sheet name="Specs" sheetId="9" r:id="rId2"/>
+    <sheet name="List" sheetId="2" r:id="rId3"/>
+    <sheet name="upload" sheetId="1" r:id="rId4"/>
+    <sheet name="Details" sheetId="3" r:id="rId5"/>
+    <sheet name="asdas" sheetId="4" r:id="rId6"/>
+    <sheet name="Best selling" sheetId="6" r:id="rId7"/>
+    <sheet name="NEw Arrivals" sheetId="7" r:id="rId8"/>
   </sheets>
   <definedNames>
-    <definedName name="_xlnm._FilterDatabase" localSheetId="0" hidden="1">List!$B$1:$M$1</definedName>
+    <definedName name="_xlnm._FilterDatabase" localSheetId="2" hidden="1">List!$B$1:$M$1</definedName>
   </definedNames>
   <calcPr calcId="191029"/>
   <extLst>
@@ -39,7 +41,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="4257" uniqueCount="911">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="5145" uniqueCount="1263">
   <si>
     <t>CPU Socket Type</t>
   </si>
@@ -2772,6 +2774,1062 @@
   </si>
   <si>
     <t>https://www.neweggbusiness.com/product/product.aspx?item=9b-19-113-500</t>
+  </si>
+  <si>
+    <t>Lenovo Desktop Computer ThinkCentre M720 (10T70057US) Intel Core i5 8th Gen 8400T (1.70 GHz) 8 GB DDR4 500 GB HDD Intel UHD Graphics 630 Windows 10 Pro 64-Bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-547</t>
+  </si>
+  <si>
+    <t>10T70057US</t>
+  </si>
+  <si>
+    <t>Lenovo</t>
+  </si>
+  <si>
+    <t>ThinkCentre</t>
+  </si>
+  <si>
+    <t>M720 (10T70057US)</t>
+  </si>
+  <si>
+    <t>Quick Info</t>
+  </si>
+  <si>
+    <t>Business Desktops &amp; Workstations</t>
+  </si>
+  <si>
+    <t>Tiny</t>
+  </si>
+  <si>
+    <t>Usage</t>
+  </si>
+  <si>
+    <t>Business</t>
+  </si>
+  <si>
+    <t>Processor</t>
+  </si>
+  <si>
+    <t>Intel Core i5-8400T 1.70 GHz</t>
+  </si>
+  <si>
+    <t>Processor Main Features</t>
+  </si>
+  <si>
+    <t>64 bit 6-Core Processor</t>
+  </si>
+  <si>
+    <t>Cache Per Processor</t>
+  </si>
+  <si>
+    <t>9 MB L3 Cache</t>
+  </si>
+  <si>
+    <t>8 GB DDR4 2666</t>
+  </si>
+  <si>
+    <t>Storage</t>
+  </si>
+  <si>
+    <t>500 GB 7200 RPM HDD</t>
+  </si>
+  <si>
+    <t>Graphics</t>
+  </si>
+  <si>
+    <t>Power Supply</t>
+  </si>
+  <si>
+    <t>Operating System</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro 64-Bit</t>
+  </si>
+  <si>
+    <t>Motherboard</t>
+  </si>
+  <si>
+    <t>Intel B360</t>
+  </si>
+  <si>
+    <t>CPU</t>
+  </si>
+  <si>
+    <t>Intel Core i5 8th Gen</t>
+  </si>
+  <si>
+    <t>CPU Speed</t>
+  </si>
+  <si>
+    <t>8400T (1.70 GHz)</t>
+  </si>
+  <si>
+    <t>L3 Cache Per CPU</t>
+  </si>
+  <si>
+    <t>9 MB</t>
+  </si>
+  <si>
+    <t>CPU Main Features</t>
+  </si>
+  <si>
+    <t>GPU/VGA Type</t>
+  </si>
+  <si>
+    <t>Graphics Interface</t>
+  </si>
+  <si>
+    <t>Integrated video</t>
+  </si>
+  <si>
+    <t>Memory Capacity</t>
+  </si>
+  <si>
+    <t>8 GB DDR4</t>
+  </si>
+  <si>
+    <t>Memory Speed</t>
+  </si>
+  <si>
+    <t>Memory Spec</t>
+  </si>
+  <si>
+    <t>8 GB x 1</t>
+  </si>
+  <si>
+    <t>Memory Slot (Total)</t>
+  </si>
+  <si>
+    <t>Memory Slot (Available)</t>
+  </si>
+  <si>
+    <t>32 GB</t>
+  </si>
+  <si>
+    <t>SSD</t>
+  </si>
+  <si>
+    <t>HDD</t>
+  </si>
+  <si>
+    <t>500 GB</t>
+  </si>
+  <si>
+    <t>HDD RPM</t>
+  </si>
+  <si>
+    <t>7200rpm</t>
+  </si>
+  <si>
+    <t>Optical Drive</t>
+  </si>
+  <si>
+    <t>Optical Drive Type</t>
+  </si>
+  <si>
+    <t>Display</t>
+  </si>
+  <si>
+    <t>Screen Size</t>
+  </si>
+  <si>
+    <t>No Screen</t>
+  </si>
+  <si>
+    <t>Communications</t>
+  </si>
+  <si>
+    <t>WLAN</t>
+  </si>
+  <si>
+    <t>802.11ac Wireless LAN</t>
+  </si>
+  <si>
+    <t>Bluetooth 4.2</t>
+  </si>
+  <si>
+    <t>Front Panel Ports</t>
+  </si>
+  <si>
+    <t>Front USB</t>
+  </si>
+  <si>
+    <t>Front Audio Ports</t>
+  </si>
+  <si>
+    <t>Back Panel Ports</t>
+  </si>
+  <si>
+    <t>2 Display Port, 1 HDMI</t>
+  </si>
+  <si>
+    <t>Rear USB</t>
+  </si>
+  <si>
+    <t>1 port</t>
+  </si>
+  <si>
+    <t>Keyboard</t>
+  </si>
+  <si>
+    <t>Keyboard Type</t>
+  </si>
+  <si>
+    <t>USB Keyboard</t>
+  </si>
+  <si>
+    <t>Mouse</t>
+  </si>
+  <si>
+    <t>Mouse Type</t>
+  </si>
+  <si>
+    <t>USB Mouse</t>
+  </si>
+  <si>
+    <t>Dimensions &amp; Weight</t>
+  </si>
+  <si>
+    <t>Dimensions (H x W x D)</t>
+  </si>
+  <si>
+    <t>1.36" x 7.05" x 7.20"</t>
+  </si>
+  <si>
+    <t>Weight</t>
+  </si>
+  <si>
+    <t>2.91 lbs.</t>
+  </si>
+  <si>
+    <t>1 x USB 3.1 Gen 1 (Always On and fast charge) ** 1 x USB 3.1 Gen 1 Type-C</t>
+  </si>
+  <si>
+    <t>1 x microphone (3.5 mm) **  1 x headphone / microphone combo jack (3.5 mm)</t>
+  </si>
+  <si>
+    <t>2 x USB 3.1 Gen 2**2 x USB 3.1 Gen 1</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-548</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-549</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-550</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-551</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-552</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-553</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-554</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-555</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-556</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-557</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-558</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-559</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-560</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-561</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-562</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-563</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-564</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-565</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-566</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-567</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-568</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-569</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-570</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-571</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-572</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-573</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-574</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-575</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-576</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-577</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-578</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-579</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-580</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-581</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-582</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-583</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-584</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-585</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-586</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-587</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-588</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-998-589</t>
+  </si>
+  <si>
+    <t>https://www.neweggbusiness.com/product/product.aspx?item=9b-83-998-547</t>
+  </si>
+  <si>
+    <t>https://www.neweggbusiness.com/product/product.aspx?item=9b-83-152-446r</t>
+  </si>
+  <si>
+    <t>MSI Gaming Desktop Trident X Plus 9SF-054US Intel Core i9 9th Gen 9900K (3.60 GHz) 32 GB DDR4 2 TB HDD 512 GB SSD NVIDIA GeForce RTX 2080 Ti Windows 10 Pro 64-Bit</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9B-83-152-446R</t>
+  </si>
+  <si>
+    <t>TridentXPlus9SF054US</t>
+  </si>
+  <si>
+    <t>SavePrice</t>
+  </si>
+  <si>
+    <t>Trident X Plus 9SF-054US</t>
+  </si>
+  <si>
+    <t>Gaming &amp; Entertainment</t>
+  </si>
+  <si>
+    <t>Consumer</t>
+  </si>
+  <si>
+    <t>Colors</t>
+  </si>
+  <si>
+    <t>Black - RGB</t>
+  </si>
+  <si>
+    <t>Intel Core i9-9900K 3.60 GHz</t>
+  </si>
+  <si>
+    <t>64 bit 8-Core Processor</t>
+  </si>
+  <si>
+    <t>16 MB L3 Cache</t>
+  </si>
+  <si>
+    <t>32 GB DDR4 2666 MHz</t>
+  </si>
+  <si>
+    <t>2 TB 5400 RPM HDD + 512 GB PCIe NVMe M.2 SSD</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 2080 Ti 11 GB GDDR6</t>
+  </si>
+  <si>
+    <t>650W 80 Plus Gold</t>
+  </si>
+  <si>
+    <t>Intel Core i9 9th Gen</t>
+  </si>
+  <si>
+    <t>9900K (3.60 GHz)</t>
+  </si>
+  <si>
+    <t>16 MB</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce RTX 2080 Ti</t>
+  </si>
+  <si>
+    <t>Video Memory</t>
+  </si>
+  <si>
+    <t>11 GB GDDR6</t>
+  </si>
+  <si>
+    <t>32 GB DDR4</t>
+  </si>
+  <si>
+    <t>16 GB x 2</t>
+  </si>
+  <si>
+    <t>512 GB</t>
+  </si>
+  <si>
+    <t>2 TB</t>
+  </si>
+  <si>
+    <t>5400rpm</t>
+  </si>
+  <si>
+    <t>Storage Spec</t>
+  </si>
+  <si>
+    <t>Audio</t>
+  </si>
+  <si>
+    <t>Audio Features</t>
+  </si>
+  <si>
+    <t>7.1 Channel HD Audio with Nahimic audio enhancer</t>
+  </si>
+  <si>
+    <t>Intel Dual Band Wireless-AC 3168 1x1 802.11ac (433 Mbps)</t>
+  </si>
+  <si>
+    <t>1 x Mic. In, 1 x Headphone-out</t>
+  </si>
+  <si>
+    <t>1 x HDMI-out, 3 x DisplayPorts, 1 x USB Type-C</t>
+  </si>
+  <si>
+    <t>Clutch GM10 Mouse</t>
+  </si>
+  <si>
+    <t>DS 4200 Keyboard</t>
+  </si>
+  <si>
+    <t>15.60" x 5.10" x 15.06"</t>
+  </si>
+  <si>
+    <t>14.44 lbs.</t>
+  </si>
+  <si>
+    <t>1 x USB 3.1 Gen 1 Type-C**1 x USB 3.1 Gen 1 Type-A*1 x USB 2.0</t>
+  </si>
+  <si>
+    <t>1 x USB 3.1 Gen 2 Type-C**1 x USB 3.1 Gen 2 Type-A**1 x USB 3.1 Gen 1 Type-A**2 x USB 2.0</t>
+  </si>
+  <si>
+    <t>HP Laptop EliteBook 840 G4 Intel Core i5 7th Gen 7300U (2.60 GHz) 8 GB Memory 500 GB HDD Intel HD Graphics 620 14.0" Windows 10 Pro 64-Bit</t>
+  </si>
+  <si>
+    <t>9SIA4AW9W7</t>
+  </si>
+  <si>
+    <t>2VC90UT#ABA</t>
+  </si>
+  <si>
+    <t>HP</t>
+  </si>
+  <si>
+    <t>EliteBook</t>
+  </si>
+  <si>
+    <t>840 G4</t>
+  </si>
+  <si>
+    <t>https://www.neweggbusiness.com/product/product.aspx?item=9sia4aw9w71802</t>
+  </si>
+  <si>
+    <t>Silver</t>
+  </si>
+  <si>
+    <t>Windows 10 Pro</t>
+  </si>
+  <si>
+    <t>Intel Core i5-7300U 2.60 GHz</t>
+  </si>
+  <si>
+    <t>Screen</t>
+  </si>
+  <si>
+    <t>14"</t>
+  </si>
+  <si>
+    <t>Graphics Card</t>
+  </si>
+  <si>
+    <t>Intel HD Graphics 620</t>
+  </si>
+  <si>
+    <t>Shared memory</t>
+  </si>
+  <si>
+    <t>Dimensions (W x D x H)</t>
+  </si>
+  <si>
+    <t>13.30" x 9.30" x 0.70"</t>
+  </si>
+  <si>
+    <t>3.27 lbs.</t>
+  </si>
+  <si>
+    <t>Other Features</t>
+  </si>
+  <si>
+    <t>Security: Kensington Lock Slot, Accepts 3rd Party Security Lock Devices, Infineon TPM Software Professional Package, Fingerprint Reader</t>
+  </si>
+  <si>
+    <t>Intel Core i5 7th Gen</t>
+  </si>
+  <si>
+    <t>7300U (2.60 GHz)</t>
+  </si>
+  <si>
+    <t>Kaby Lake</t>
+  </si>
+  <si>
+    <t>Turbo Frequency</t>
+  </si>
+  <si>
+    <t>Up to 3.50 GHz</t>
+  </si>
+  <si>
+    <t>Number of Cores</t>
+  </si>
+  <si>
+    <t>Dual-core Processor</t>
+  </si>
+  <si>
+    <t>CPU L3 Cache</t>
+  </si>
+  <si>
+    <t>3 MB</t>
+  </si>
+  <si>
+    <t>14.0"</t>
+  </si>
+  <si>
+    <t>Touchscreen</t>
+  </si>
+  <si>
+    <t>Resolution</t>
+  </si>
+  <si>
+    <t>1366 x 768</t>
+  </si>
+  <si>
+    <t>LCD Features</t>
+  </si>
+  <si>
+    <t>GPU/VPU</t>
+  </si>
+  <si>
+    <t>Shared system memory</t>
+  </si>
+  <si>
+    <t>Graphic Type</t>
+  </si>
+  <si>
+    <t>Integrated Card</t>
+  </si>
+  <si>
+    <t>7200 RPM</t>
+  </si>
+  <si>
+    <t>HDD Interface</t>
+  </si>
+  <si>
+    <t>8 GB</t>
+  </si>
+  <si>
+    <t>DDR4 2133</t>
+  </si>
+  <si>
+    <t>LAN</t>
+  </si>
+  <si>
+    <t>USB</t>
+  </si>
+  <si>
+    <t>Video Port</t>
+  </si>
+  <si>
+    <t>1 x VGA, 1 x DisplayPort</t>
+  </si>
+  <si>
+    <t>1 x Headphone/Microphone Combo Jack</t>
+  </si>
+  <si>
+    <t>2 x Integrated Microphone</t>
+  </si>
+  <si>
+    <t>Speaker</t>
+  </si>
+  <si>
+    <t>Internal Speakers</t>
+  </si>
+  <si>
+    <t>Input Device</t>
+  </si>
+  <si>
+    <t>Touchpad</t>
+  </si>
+  <si>
+    <t>Standard</t>
+  </si>
+  <si>
+    <t>Backlit Keyboard</t>
+  </si>
+  <si>
+    <t>Backlit</t>
+  </si>
+  <si>
+    <t>Webcam</t>
+  </si>
+  <si>
+    <t>Card Reader</t>
+  </si>
+  <si>
+    <t>1 x Smart Card (SD / SDHC / SDXC)</t>
+  </si>
+  <si>
+    <t>General</t>
+  </si>
+  <si>
+    <t>Style</t>
+  </si>
+  <si>
+    <t>Thin and Light</t>
+  </si>
+  <si>
+    <t>Mainstream</t>
+  </si>
+  <si>
+    <t>Power</t>
+  </si>
+  <si>
+    <t>Battery</t>
+  </si>
+  <si>
+    <t>3-cell lithium ion</t>
+  </si>
+  <si>
+    <t>Battery Life</t>
+  </si>
+  <si>
+    <t>&gt; 5 hours</t>
+  </si>
+  <si>
+    <t>Aspect Ratio: 16:9**Finish: Matte**Brightness: 220 nits**Viewing Angle: 90 Degree Horizontal, 60 Degree Vertical**Response Time: 16 ms</t>
+  </si>
+  <si>
+    <t>Razer Blade Pro RZ09-01663E53-R3U1 17.3" 4K/UHD Intel Core i7 7th Gen 7820HK (2.90 GHz) NVIDIA GeForce GTX 1080 32 GB Memory 1 TB SSD Windows 10 Home 64-Bit Gaming Laptop</t>
+  </si>
+  <si>
+    <t>Razer</t>
+  </si>
+  <si>
+    <t>Blade Pro</t>
+  </si>
+  <si>
+    <t>RZ09-01663E53-R3U1</t>
+  </si>
+  <si>
+    <t>9B-34-326-038R</t>
+  </si>
+  <si>
+    <t>https://www.neweggbusiness.com/product/product.aspx?item=9b-34-326-038r</t>
+  </si>
+  <si>
+    <t>Windows 10 Home 64-Bit</t>
+  </si>
+  <si>
+    <t>Intel Core i7-7820HK 2.9 GHz</t>
+  </si>
+  <si>
+    <t>17.3" 4K Touchscreen</t>
+  </si>
+  <si>
+    <t>1 TB SSD</t>
+  </si>
+  <si>
+    <t>GeForce GTX 1080</t>
+  </si>
+  <si>
+    <t>8 GB GDDR5X</t>
+  </si>
+  <si>
+    <t>16.70" x 11.00" x 0.88"</t>
+  </si>
+  <si>
+    <t>7.80 lbs.</t>
+  </si>
+  <si>
+    <t>Intel Core i7 7th Gen</t>
+  </si>
+  <si>
+    <t>7820HK (2.90 GHz)</t>
+  </si>
+  <si>
+    <t>Quad-core Processor</t>
+  </si>
+  <si>
+    <t>8 MB</t>
+  </si>
+  <si>
+    <t>17.3" 4K/UHD</t>
+  </si>
+  <si>
+    <t>Wide Screen Support</t>
+  </si>
+  <si>
+    <t>3840 x 2160</t>
+  </si>
+  <si>
+    <t>Operating Systems</t>
+  </si>
+  <si>
+    <t>NVIDIA GeForce GTX 1080</t>
+  </si>
+  <si>
+    <t>Dedicated Card</t>
+  </si>
+  <si>
+    <t>1 TB</t>
+  </si>
+  <si>
+    <t>Bluetooth 4.1</t>
+  </si>
+  <si>
+    <t>3 x USB 3.0</t>
+  </si>
+  <si>
+    <t>1 x Thunderbolt 3</t>
+  </si>
+  <si>
+    <t>1 x HDMI 2.0</t>
+  </si>
+  <si>
+    <t>Output Device</t>
+  </si>
+  <si>
+    <t>Ultra Low-Profile Mechanical Keyboard Powered by Chroma</t>
+  </si>
+  <si>
+    <t>AC Adapter</t>
+  </si>
+  <si>
+    <t>250-watt AC adapter</t>
+  </si>
+  <si>
+    <t>Built-in 99 Wh rechargeable lithium-ion polymer battery</t>
+  </si>
+  <si>
+    <t>HP ProLiant DL380 G10 2U Rack Server - 2 x Intel Xeon Gold 6130 Hexadeca-core (16 Core) 2.10 GHz - 64 GB Installed DDR4 SDRAM - 12Gb/s SAS Controller - 2 x 800 W</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96720</t>
+  </si>
+  <si>
+    <t>ProLiant DL380 G10</t>
+  </si>
+  <si>
+    <t>879938-B21</t>
+  </si>
+  <si>
+    <t>Rack Height</t>
+  </si>
+  <si>
+    <t>2U</t>
+  </si>
+  <si>
+    <t>Intel Xeon Scalable</t>
+  </si>
+  <si>
+    <t>6130 (2.10 GHz)</t>
+  </si>
+  <si>
+    <t>Number of CPU Cores</t>
+  </si>
+  <si>
+    <t>16-Core Processor</t>
+  </si>
+  <si>
+    <t># of Processors Installed</t>
+  </si>
+  <si>
+    <t>MAX Processors</t>
+  </si>
+  <si>
+    <t>Installed Memory Size</t>
+  </si>
+  <si>
+    <t>6 total: 3-slots (x8, x16, x8 with m.2) as standard, plus 3 PCIe (x8, x16, x8)</t>
+  </si>
+  <si>
+    <t>Manufacturer Warranty</t>
+  </si>
+  <si>
+    <t>Parts</t>
+  </si>
+  <si>
+    <t>3 Year</t>
+  </si>
+  <si>
+    <t>Group</t>
+  </si>
+  <si>
+    <t>CPU Model</t>
+  </si>
+  <si>
+    <t>Gold 6130 (2.10 GHz)</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96721</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96722</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96723</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96724</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96725</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96726</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96727</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96728</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96729</t>
+  </si>
+  <si>
+    <t xml:space="preserve"> 9SIV1DS9B96730</t>
+  </si>
+  <si>
+    <t>Dell UltraSharp UP3216Q 32" UHD 4K monitor, 1,000:1, 300cd/m2, 6ms (fast), IPS, USB 3.0, card reader</t>
+  </si>
+  <si>
+    <t>Dell</t>
+  </si>
+  <si>
+    <t>UP3216Q</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5145</t>
+  </si>
+  <si>
+    <t>https://www.neweggbusiness.com/product/product.aspx?item=9siv0uu9py5145</t>
+  </si>
+  <si>
+    <t>32"</t>
+  </si>
+  <si>
+    <t>LED Backlight</t>
+  </si>
+  <si>
+    <t>Widescreen</t>
+  </si>
+  <si>
+    <t>Maximum Resolution</t>
+  </si>
+  <si>
+    <t>Recommended Resolution</t>
+  </si>
+  <si>
+    <t>3840 x 2160 (4K)</t>
+  </si>
+  <si>
+    <t>Refresh Rate</t>
+  </si>
+  <si>
+    <t>60 Hz</t>
+  </si>
+  <si>
+    <t>Viewing Angle</t>
+  </si>
+  <si>
+    <t>178° (H) / 178° (V)</t>
+  </si>
+  <si>
+    <t>Pixel Pitch</t>
+  </si>
+  <si>
+    <t>0.182 mm</t>
+  </si>
+  <si>
+    <t>Display Colors</t>
+  </si>
+  <si>
+    <t>1.07 Billion</t>
+  </si>
+  <si>
+    <t>Brightness</t>
+  </si>
+  <si>
+    <t>300 cd/m2</t>
+  </si>
+  <si>
+    <t>Contrast Ratio</t>
+  </si>
+  <si>
+    <t>1000 to 1 (typical), 2 Million to 1 (dynamic)</t>
+  </si>
+  <si>
+    <t>Response Time</t>
+  </si>
+  <si>
+    <t>6ms</t>
+  </si>
+  <si>
+    <t>Aspect Ratio</t>
+  </si>
+  <si>
+    <t>Connectivity</t>
+  </si>
+  <si>
+    <t>Connectors</t>
+  </si>
+  <si>
+    <t>DP, mDP, HDMI (MHL), 4 x USB3 with one charging port, 1 x USB3 upstream, Media Card Reader</t>
+  </si>
+  <si>
+    <t>Convenience</t>
+  </si>
+  <si>
+    <t>Stand Adjustments</t>
+  </si>
+  <si>
+    <t>Height, Pivot, Swivel, Tilt</t>
+  </si>
+  <si>
+    <t>Built-in Speakers</t>
+  </si>
+  <si>
+    <t>VESA Compatibility - Mountable</t>
+  </si>
+  <si>
+    <t>100 x 100mm</t>
+  </si>
+  <si>
+    <t>18.92 lbs. w/ stand</t>
+  </si>
+  <si>
+    <t>19.00" x 29.50" x 8.40" w/ stand**17.50" x 29.50" x 2.00" w/o stand</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5146</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5147</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5148</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5149</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5150</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5151</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5152</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5153</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5154</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5155</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5156</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5157</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5158</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5159</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5160</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5161</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5162</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5163</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5164</t>
+  </si>
+  <si>
+    <t>9SIV0UU9PY5165</t>
   </si>
 </sst>
 </file>
@@ -2812,7 +3870,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="7">
+  <fills count="8">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -2849,8 +3907,14 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="0"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
-  <borders count="2">
+  <borders count="3">
     <border>
       <left/>
       <right/>
@@ -2873,12 +3937,25 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left style="thin">
+        <color indexed="64"/>
+      </left>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom style="thin">
+        <color indexed="64"/>
+      </bottom>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="0" fontId="3" fillId="0" borderId="0" applyNumberFormat="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="33">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="left"/>
@@ -2913,6 +3990,19 @@
     <xf numFmtId="0" fontId="0" fillId="6" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
     <xf numFmtId="8" fontId="0" fillId="6" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="3" fillId="6" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="left"/>
+    </xf>
+    <xf numFmtId="4" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="8" fontId="0" fillId="7" borderId="1" xfId="0" applyNumberFormat="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="1" xfId="0" applyFill="1" applyBorder="1" applyAlignment="1">
+      <alignment vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="0" fontId="3" fillId="7" borderId="1" xfId="1" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="7" borderId="2" xfId="0" applyFill="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="1"/>
+    <xf numFmtId="20" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Hyperlink" xfId="1" builtinId="8"/>
@@ -3227,11 +4317,4059 @@
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{38BD20E9-79B3-42BC-99AE-78D9F9690679}">
+  <dimension ref="A1:N50"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <selection activeCell="A7" sqref="A7"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="18.5703125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="25.140625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="9.85546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="9.85546875" customWidth="1"/>
+    <col min="5" max="5" width="12" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="52.42578125" customWidth="1"/>
+    <col min="7" max="7" width="12.5703125" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="30.140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="18.42578125" customWidth="1"/>
+    <col min="10" max="10" width="33.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>53</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>54</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>1037</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>122</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>72</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>34</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>38</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>40</v>
+      </c>
+      <c r="J1" s="2" t="s">
+        <v>42</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>74</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>874</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>875</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>876</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A2" s="9" t="s">
+        <v>912</v>
+      </c>
+      <c r="B2" s="24" t="s">
+        <v>913</v>
+      </c>
+      <c r="C2" s="24">
+        <v>636.99</v>
+      </c>
+      <c r="D2" s="24">
+        <v>636.99</v>
+      </c>
+      <c r="E2" s="24"/>
+      <c r="F2" s="24" t="s">
+        <v>911</v>
+      </c>
+      <c r="G2" s="24" t="s">
+        <v>914</v>
+      </c>
+      <c r="H2" s="24" t="s">
+        <v>915</v>
+      </c>
+      <c r="I2" s="25"/>
+      <c r="J2" s="24" t="s">
+        <v>916</v>
+      </c>
+      <c r="K2" s="31" t="s">
+        <v>1032</v>
+      </c>
+      <c r="L2" s="24">
+        <v>2</v>
+      </c>
+      <c r="M2" s="24">
+        <v>12</v>
+      </c>
+      <c r="N2" s="24">
+        <v>652</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A3" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B3" s="24" t="s">
+        <v>1036</v>
+      </c>
+      <c r="C3" s="24">
+        <v>2999.99</v>
+      </c>
+      <c r="D3">
+        <v>2549.9899999999998</v>
+      </c>
+      <c r="E3" s="24"/>
+      <c r="F3" s="24" t="s">
+        <v>1034</v>
+      </c>
+      <c r="G3" t="s">
+        <v>385</v>
+      </c>
+      <c r="H3" s="24"/>
+      <c r="I3" s="24"/>
+      <c r="J3" t="s">
+        <v>1038</v>
+      </c>
+      <c r="K3" s="31" t="s">
+        <v>1033</v>
+      </c>
+      <c r="L3" s="24">
+        <v>2</v>
+      </c>
+      <c r="M3" s="24">
+        <v>12</v>
+      </c>
+      <c r="N3" s="24">
+        <v>654</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A4" s="9" t="s">
+        <v>1075</v>
+      </c>
+      <c r="B4" s="24" t="s">
+        <v>1076</v>
+      </c>
+      <c r="C4" s="24">
+        <v>1244.95</v>
+      </c>
+      <c r="D4" s="24">
+        <v>1244.95</v>
+      </c>
+      <c r="E4" s="24"/>
+      <c r="F4" s="24" t="s">
+        <v>1074</v>
+      </c>
+      <c r="G4" s="24" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H4" s="24" t="s">
+        <v>1078</v>
+      </c>
+      <c r="I4" s="24"/>
+      <c r="J4" s="24" t="s">
+        <v>1079</v>
+      </c>
+      <c r="K4" s="31" t="s">
+        <v>1080</v>
+      </c>
+      <c r="L4" s="24">
+        <v>2</v>
+      </c>
+      <c r="M4" s="24">
+        <v>14</v>
+      </c>
+      <c r="N4" s="24">
+        <v>660</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A5" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B5" s="24" t="s">
+        <v>1145</v>
+      </c>
+      <c r="C5" s="24">
+        <v>4399.99</v>
+      </c>
+      <c r="D5" s="24">
+        <v>3279.99</v>
+      </c>
+      <c r="E5" s="24"/>
+      <c r="F5" t="s">
+        <v>1142</v>
+      </c>
+      <c r="G5" s="24" t="s">
+        <v>1143</v>
+      </c>
+      <c r="H5" s="24" t="s">
+        <v>1144</v>
+      </c>
+      <c r="I5" s="25"/>
+      <c r="J5" s="24" t="s">
+        <v>1145</v>
+      </c>
+      <c r="K5" s="31" t="s">
+        <v>1147</v>
+      </c>
+      <c r="L5" s="24">
+        <v>2</v>
+      </c>
+      <c r="M5" s="24">
+        <v>14</v>
+      </c>
+      <c r="N5" s="24">
+        <v>661</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A6" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B6" s="24" t="s">
+        <v>1179</v>
+      </c>
+      <c r="C6" s="24">
+        <v>5823.71</v>
+      </c>
+      <c r="D6" s="24">
+        <v>5823.71</v>
+      </c>
+      <c r="E6" s="24"/>
+      <c r="F6" t="s">
+        <v>1176</v>
+      </c>
+      <c r="G6" s="24" t="s">
+        <v>1077</v>
+      </c>
+      <c r="H6" s="24" t="s">
+        <v>1178</v>
+      </c>
+      <c r="I6" s="25"/>
+      <c r="J6" s="25"/>
+      <c r="K6" s="24"/>
+      <c r="L6" s="24"/>
+      <c r="M6" s="24"/>
+      <c r="N6" s="24"/>
+    </row>
+    <row r="7" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A7" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B7" s="24" t="s">
+        <v>1208</v>
+      </c>
+      <c r="C7" s="24">
+        <v>1230.99</v>
+      </c>
+      <c r="D7" s="24">
+        <v>1230.99</v>
+      </c>
+      <c r="E7" s="24"/>
+      <c r="F7" s="24" t="s">
+        <v>1206</v>
+      </c>
+      <c r="G7" s="25" t="s">
+        <v>1207</v>
+      </c>
+      <c r="H7" s="25"/>
+      <c r="I7" s="25"/>
+      <c r="J7" s="24" t="s">
+        <v>1208</v>
+      </c>
+      <c r="K7" s="31" t="s">
+        <v>1210</v>
+      </c>
+      <c r="L7" s="24">
+        <v>0</v>
+      </c>
+      <c r="M7" s="24">
+        <v>0</v>
+      </c>
+      <c r="N7" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A8" s="9"/>
+      <c r="B8" s="24"/>
+      <c r="C8" s="24"/>
+      <c r="D8" s="24"/>
+      <c r="E8" s="24"/>
+      <c r="G8" s="24"/>
+      <c r="H8" s="24"/>
+      <c r="I8" s="24"/>
+      <c r="J8" s="24"/>
+      <c r="K8" s="24"/>
+      <c r="L8" s="24">
+        <v>0</v>
+      </c>
+      <c r="M8" s="24">
+        <v>0</v>
+      </c>
+      <c r="N8" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A9" s="9"/>
+      <c r="B9" s="24"/>
+      <c r="C9" s="26"/>
+      <c r="D9" s="26"/>
+      <c r="E9" s="24"/>
+      <c r="G9" s="24"/>
+      <c r="H9" s="24"/>
+      <c r="I9" s="25"/>
+      <c r="J9" s="24"/>
+      <c r="K9" s="24"/>
+      <c r="L9" s="24">
+        <v>0</v>
+      </c>
+      <c r="M9" s="24">
+        <v>0</v>
+      </c>
+      <c r="N9" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A10" s="9"/>
+      <c r="B10" s="24"/>
+      <c r="C10" s="24"/>
+      <c r="D10" s="24"/>
+      <c r="E10" s="24"/>
+      <c r="F10" s="24"/>
+      <c r="G10" s="24"/>
+      <c r="H10" s="24"/>
+      <c r="I10" s="25"/>
+      <c r="J10" s="24"/>
+      <c r="K10" s="24"/>
+      <c r="L10" s="24">
+        <v>0</v>
+      </c>
+      <c r="M10" s="24">
+        <v>0</v>
+      </c>
+      <c r="N10" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A11" s="9"/>
+      <c r="B11" s="24"/>
+      <c r="C11" s="27"/>
+      <c r="D11" s="27"/>
+      <c r="E11" s="24"/>
+      <c r="F11" s="27"/>
+      <c r="G11" s="24"/>
+      <c r="H11" s="24"/>
+      <c r="I11" s="24"/>
+      <c r="J11" s="24"/>
+      <c r="K11" s="24"/>
+      <c r="L11" s="24">
+        <v>0</v>
+      </c>
+      <c r="M11" s="24">
+        <v>0</v>
+      </c>
+      <c r="N11" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="12" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A12" s="9"/>
+      <c r="B12" s="24"/>
+      <c r="C12" s="27"/>
+      <c r="D12" s="27"/>
+      <c r="E12" s="24"/>
+      <c r="F12" s="4"/>
+      <c r="G12" s="24"/>
+      <c r="H12" s="24"/>
+      <c r="I12" s="24"/>
+      <c r="J12" s="24"/>
+      <c r="K12" s="24"/>
+      <c r="L12" s="24">
+        <v>0</v>
+      </c>
+      <c r="M12" s="24">
+        <v>0</v>
+      </c>
+      <c r="N12" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="13" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A13" s="9"/>
+      <c r="B13" s="24"/>
+      <c r="C13" s="24"/>
+      <c r="D13" s="24"/>
+      <c r="E13" s="24"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="24"/>
+      <c r="H13" s="28"/>
+      <c r="I13" s="28"/>
+      <c r="J13" s="28"/>
+      <c r="K13" s="24"/>
+      <c r="L13" s="24">
+        <v>0</v>
+      </c>
+      <c r="M13" s="24">
+        <v>0</v>
+      </c>
+      <c r="N13" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="14" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A14" s="9"/>
+      <c r="B14" s="24"/>
+      <c r="C14" s="24"/>
+      <c r="D14" s="24"/>
+      <c r="E14" s="24"/>
+      <c r="F14" s="24"/>
+      <c r="G14" s="24"/>
+      <c r="H14" s="24"/>
+      <c r="I14" s="24"/>
+      <c r="J14" s="24"/>
+      <c r="K14" s="24"/>
+      <c r="L14" s="24">
+        <v>0</v>
+      </c>
+      <c r="M14" s="24">
+        <v>0</v>
+      </c>
+      <c r="N14" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="15" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A15" s="9"/>
+      <c r="B15" s="24"/>
+      <c r="C15" s="24"/>
+      <c r="D15" s="24"/>
+      <c r="E15" s="24"/>
+      <c r="F15" s="24"/>
+      <c r="G15" s="24"/>
+      <c r="H15" s="24"/>
+      <c r="I15" s="24"/>
+      <c r="J15" s="24"/>
+      <c r="K15" s="24"/>
+      <c r="L15" s="24">
+        <v>0</v>
+      </c>
+      <c r="M15" s="24">
+        <v>0</v>
+      </c>
+      <c r="N15" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="16" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A16" s="9"/>
+      <c r="B16" s="24"/>
+      <c r="C16" s="27"/>
+      <c r="D16" s="27"/>
+      <c r="E16" s="24"/>
+      <c r="F16" s="27"/>
+      <c r="G16" s="24"/>
+      <c r="H16" s="24"/>
+      <c r="I16" s="24"/>
+      <c r="J16" s="24"/>
+      <c r="K16" s="24"/>
+      <c r="L16" s="24">
+        <v>0</v>
+      </c>
+      <c r="M16" s="24">
+        <v>0</v>
+      </c>
+      <c r="N16" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="17" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A17" s="9"/>
+      <c r="B17" s="24"/>
+      <c r="C17" s="24"/>
+      <c r="D17" s="24"/>
+      <c r="E17" s="24"/>
+      <c r="G17" s="24"/>
+      <c r="H17" s="24"/>
+      <c r="I17" s="24"/>
+      <c r="J17" s="24"/>
+      <c r="K17" s="24"/>
+      <c r="L17" s="24">
+        <v>0</v>
+      </c>
+      <c r="M17" s="24">
+        <v>0</v>
+      </c>
+      <c r="N17" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="18" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A18" s="9"/>
+      <c r="B18" s="24"/>
+      <c r="C18" s="27"/>
+      <c r="D18" s="27"/>
+      <c r="E18" s="24"/>
+      <c r="F18" s="24"/>
+      <c r="G18" s="24"/>
+      <c r="H18" s="24"/>
+      <c r="I18" s="24"/>
+      <c r="J18" s="24"/>
+      <c r="K18" s="24"/>
+      <c r="L18" s="24">
+        <v>0</v>
+      </c>
+      <c r="M18" s="24">
+        <v>0</v>
+      </c>
+      <c r="N18" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="19" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A19" s="9"/>
+      <c r="B19" s="24"/>
+      <c r="C19" s="27"/>
+      <c r="D19" s="27"/>
+      <c r="E19" s="24"/>
+      <c r="F19" s="24"/>
+      <c r="G19" s="24"/>
+      <c r="H19" s="24"/>
+      <c r="I19" s="24"/>
+      <c r="J19" s="24"/>
+      <c r="K19" s="24"/>
+      <c r="L19" s="24">
+        <v>0</v>
+      </c>
+      <c r="M19" s="24">
+        <v>0</v>
+      </c>
+      <c r="N19" s="24">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="20" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A20" s="9"/>
+      <c r="B20" s="24"/>
+      <c r="C20" s="27"/>
+      <c r="D20" s="27"/>
+      <c r="E20" s="24"/>
+      <c r="F20" s="24"/>
+      <c r="G20" s="24"/>
+      <c r="H20" s="24"/>
+      <c r="I20" s="24"/>
+      <c r="J20" s="24"/>
+      <c r="K20" s="24"/>
+      <c r="L20" s="24"/>
+      <c r="M20" s="24"/>
+      <c r="N20" s="24"/>
+    </row>
+    <row r="21" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A21" s="14"/>
+      <c r="B21" s="24"/>
+      <c r="C21" s="27"/>
+      <c r="D21" s="27"/>
+      <c r="E21" s="24"/>
+      <c r="F21" s="27"/>
+      <c r="G21" s="24"/>
+      <c r="H21" s="24"/>
+      <c r="I21" s="24"/>
+      <c r="J21" s="24"/>
+      <c r="K21" s="29"/>
+      <c r="L21" s="24"/>
+      <c r="M21" s="24"/>
+      <c r="N21" s="24"/>
+    </row>
+    <row r="22" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A22" s="14"/>
+      <c r="B22" s="24"/>
+      <c r="C22" s="24"/>
+      <c r="D22" s="24"/>
+      <c r="E22" s="24"/>
+      <c r="F22" s="27"/>
+      <c r="G22" s="25"/>
+      <c r="H22" s="24"/>
+      <c r="I22" s="24"/>
+      <c r="J22" s="25"/>
+      <c r="K22" s="24"/>
+      <c r="L22" s="24"/>
+      <c r="M22" s="24"/>
+      <c r="N22" s="24"/>
+    </row>
+    <row r="23" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A23" s="14"/>
+      <c r="B23" s="24"/>
+      <c r="C23" s="27"/>
+      <c r="D23" s="27"/>
+      <c r="E23" s="24"/>
+      <c r="F23" s="24"/>
+      <c r="G23" s="24"/>
+      <c r="H23" s="24"/>
+      <c r="I23" s="24"/>
+      <c r="J23" s="24"/>
+      <c r="K23" s="29"/>
+      <c r="L23" s="24"/>
+      <c r="M23" s="24"/>
+      <c r="N23" s="24"/>
+    </row>
+    <row r="24" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A24" s="14"/>
+      <c r="B24" s="24"/>
+      <c r="C24" s="27"/>
+      <c r="D24" s="27"/>
+      <c r="E24" s="24"/>
+      <c r="F24" s="24"/>
+      <c r="G24" s="24"/>
+      <c r="H24" s="24"/>
+      <c r="I24" s="24"/>
+      <c r="J24" s="24"/>
+      <c r="K24" s="29"/>
+      <c r="L24" s="24"/>
+      <c r="M24" s="24"/>
+      <c r="N24" s="24"/>
+    </row>
+    <row r="25" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A25" s="14"/>
+      <c r="B25" s="24"/>
+      <c r="C25" s="27"/>
+      <c r="D25" s="27"/>
+      <c r="E25" s="24"/>
+      <c r="F25" s="24"/>
+      <c r="G25" s="24"/>
+      <c r="H25" s="24"/>
+      <c r="I25" s="27"/>
+      <c r="J25" s="24"/>
+      <c r="K25" s="29"/>
+      <c r="L25" s="24"/>
+      <c r="M25" s="24"/>
+      <c r="N25" s="24"/>
+    </row>
+    <row r="26" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A26" s="14"/>
+      <c r="B26" s="24"/>
+      <c r="C26" s="27"/>
+      <c r="D26" s="27"/>
+      <c r="E26" s="24"/>
+      <c r="F26" s="27"/>
+      <c r="G26" s="24"/>
+      <c r="H26" s="24"/>
+      <c r="I26" s="24"/>
+      <c r="J26" s="24"/>
+      <c r="K26" s="29"/>
+      <c r="L26" s="24"/>
+      <c r="M26" s="24"/>
+      <c r="N26" s="24"/>
+    </row>
+    <row r="27" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A27" s="14"/>
+      <c r="B27" s="24"/>
+      <c r="C27" s="27"/>
+      <c r="D27" s="27"/>
+      <c r="E27" s="24"/>
+      <c r="F27" s="24"/>
+      <c r="G27" s="24"/>
+      <c r="H27" s="24"/>
+      <c r="I27" s="24"/>
+      <c r="J27" s="24"/>
+      <c r="K27" s="29"/>
+      <c r="L27" s="24"/>
+      <c r="M27" s="24"/>
+      <c r="N27" s="24"/>
+    </row>
+    <row r="28" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A28" s="14"/>
+      <c r="B28" s="24"/>
+      <c r="C28" s="27"/>
+      <c r="D28" s="27"/>
+      <c r="E28" s="24"/>
+      <c r="F28" s="27"/>
+      <c r="G28" s="24"/>
+      <c r="H28" s="24"/>
+      <c r="I28" s="24"/>
+      <c r="J28" s="24"/>
+      <c r="K28" s="29"/>
+      <c r="L28" s="24"/>
+      <c r="M28" s="24"/>
+      <c r="N28" s="24"/>
+    </row>
+    <row r="29" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A29" s="14"/>
+      <c r="B29" s="24"/>
+      <c r="C29" s="27"/>
+      <c r="D29" s="27"/>
+      <c r="E29" s="24"/>
+      <c r="F29" s="27"/>
+      <c r="G29" s="24"/>
+      <c r="H29" s="24"/>
+      <c r="I29" s="24"/>
+      <c r="J29" s="24"/>
+      <c r="K29" s="29"/>
+      <c r="L29" s="24"/>
+      <c r="M29" s="24"/>
+      <c r="N29" s="24"/>
+    </row>
+    <row r="30" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A30" s="14"/>
+      <c r="B30" s="24"/>
+      <c r="C30" s="27"/>
+      <c r="D30" s="27"/>
+      <c r="E30" s="24"/>
+      <c r="F30" s="27"/>
+      <c r="G30" s="24"/>
+      <c r="H30" s="24"/>
+      <c r="I30" s="24"/>
+      <c r="J30" s="24"/>
+      <c r="K30" s="29"/>
+      <c r="L30" s="24"/>
+      <c r="M30" s="24"/>
+      <c r="N30" s="24"/>
+    </row>
+    <row r="31" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A31" s="14"/>
+      <c r="B31" s="24"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="24"/>
+      <c r="F31" s="24"/>
+      <c r="G31" s="24"/>
+      <c r="H31" s="24"/>
+      <c r="I31" s="24"/>
+      <c r="J31" s="24"/>
+      <c r="K31" s="29"/>
+      <c r="L31" s="24"/>
+      <c r="M31" s="24"/>
+      <c r="N31" s="24"/>
+    </row>
+    <row r="32" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A32" s="14"/>
+      <c r="B32" s="24"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="24"/>
+      <c r="F32" s="24"/>
+      <c r="G32" s="24"/>
+      <c r="H32" s="24"/>
+      <c r="I32" s="24"/>
+      <c r="J32" s="24"/>
+      <c r="K32" s="29"/>
+      <c r="L32" s="24"/>
+      <c r="M32" s="24"/>
+      <c r="N32" s="24"/>
+    </row>
+    <row r="33" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A33" s="14"/>
+      <c r="B33" s="24"/>
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="24"/>
+      <c r="F33" s="24"/>
+      <c r="G33" s="24"/>
+      <c r="H33" s="24"/>
+      <c r="I33" s="24"/>
+      <c r="J33" s="24"/>
+      <c r="K33" s="29"/>
+      <c r="L33" s="24"/>
+      <c r="M33" s="24"/>
+      <c r="N33" s="24"/>
+    </row>
+    <row r="34" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A34" s="14"/>
+      <c r="B34" s="24"/>
+      <c r="C34" s="27"/>
+      <c r="D34" s="27"/>
+      <c r="E34" s="24"/>
+      <c r="F34" s="24"/>
+      <c r="G34" s="24"/>
+      <c r="H34" s="24"/>
+      <c r="I34" s="24"/>
+      <c r="J34" s="24"/>
+      <c r="K34" s="29"/>
+      <c r="L34" s="24"/>
+      <c r="M34" s="24"/>
+      <c r="N34" s="24"/>
+    </row>
+    <row r="35" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A35" s="14"/>
+      <c r="B35" s="24"/>
+      <c r="C35" s="27"/>
+      <c r="D35" s="27"/>
+      <c r="E35" s="24"/>
+      <c r="F35" s="27"/>
+      <c r="G35" s="24"/>
+      <c r="H35" s="24"/>
+      <c r="I35" s="24"/>
+      <c r="J35" s="24"/>
+      <c r="K35" s="29"/>
+      <c r="L35" s="24"/>
+      <c r="M35" s="24"/>
+      <c r="N35" s="24"/>
+    </row>
+    <row r="36" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A36" s="18"/>
+      <c r="B36" s="24"/>
+      <c r="C36" s="27"/>
+      <c r="D36" s="27"/>
+      <c r="E36" s="24"/>
+      <c r="F36" s="24"/>
+      <c r="G36" s="24"/>
+      <c r="H36" s="24"/>
+      <c r="I36" s="24"/>
+      <c r="J36" s="24"/>
+      <c r="K36" s="29"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
+    </row>
+    <row r="37" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A37" s="18"/>
+      <c r="B37" s="24"/>
+      <c r="C37" s="27"/>
+      <c r="D37" s="27"/>
+      <c r="E37" s="24"/>
+      <c r="F37" s="24"/>
+      <c r="G37" s="24"/>
+      <c r="H37" s="24"/>
+      <c r="I37" s="24"/>
+      <c r="J37" s="24"/>
+      <c r="K37" s="29"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
+    </row>
+    <row r="38" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A38" s="18"/>
+      <c r="B38" s="24"/>
+      <c r="C38" s="27"/>
+      <c r="D38" s="27"/>
+      <c r="E38" s="24"/>
+      <c r="F38" s="27"/>
+      <c r="G38" s="24"/>
+      <c r="H38" s="24"/>
+      <c r="I38" s="24"/>
+      <c r="J38" s="24"/>
+      <c r="K38" s="29"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
+    </row>
+    <row r="39" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A39" s="18"/>
+      <c r="B39" s="24"/>
+      <c r="C39" s="27"/>
+      <c r="D39" s="27"/>
+      <c r="E39" s="24"/>
+      <c r="F39" s="24"/>
+      <c r="G39" s="24"/>
+      <c r="H39" s="24"/>
+      <c r="I39" s="24"/>
+      <c r="J39" s="24"/>
+      <c r="K39" s="29"/>
+      <c r="L39" s="24"/>
+      <c r="M39" s="24"/>
+      <c r="N39" s="24"/>
+    </row>
+    <row r="40" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A40" s="18"/>
+      <c r="B40" s="24"/>
+      <c r="C40" s="27"/>
+      <c r="D40" s="27"/>
+      <c r="E40" s="24"/>
+      <c r="F40" s="24"/>
+      <c r="G40" s="24"/>
+      <c r="H40" s="24"/>
+      <c r="I40" s="24"/>
+      <c r="J40" s="24"/>
+      <c r="K40" s="29"/>
+      <c r="L40" s="24"/>
+      <c r="M40" s="24"/>
+      <c r="N40" s="24"/>
+    </row>
+    <row r="41" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A41" s="18"/>
+      <c r="B41" s="24"/>
+      <c r="C41" s="27"/>
+      <c r="D41" s="27"/>
+      <c r="E41" s="24"/>
+      <c r="F41" s="24"/>
+      <c r="G41" s="24"/>
+      <c r="H41" s="24"/>
+      <c r="I41" s="24"/>
+      <c r="J41" s="24"/>
+      <c r="K41" s="29"/>
+      <c r="L41" s="24"/>
+      <c r="M41" s="24"/>
+      <c r="N41" s="24"/>
+    </row>
+    <row r="42" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A42" s="18"/>
+      <c r="B42" s="24"/>
+      <c r="C42" s="27"/>
+      <c r="D42" s="27"/>
+      <c r="E42" s="24"/>
+      <c r="F42" s="24"/>
+      <c r="G42" s="24"/>
+      <c r="H42" s="24"/>
+      <c r="I42" s="24"/>
+      <c r="J42" s="24"/>
+      <c r="K42" s="29"/>
+      <c r="L42" s="24"/>
+      <c r="M42" s="24"/>
+      <c r="N42" s="24"/>
+    </row>
+    <row r="43" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A43" s="8"/>
+      <c r="B43" s="30"/>
+      <c r="C43" s="27"/>
+      <c r="D43" s="27"/>
+      <c r="E43" s="24"/>
+      <c r="F43" s="24"/>
+      <c r="G43" s="24"/>
+      <c r="H43" s="24"/>
+      <c r="I43" s="24"/>
+      <c r="J43" s="24"/>
+      <c r="K43" s="29"/>
+      <c r="L43" s="24"/>
+      <c r="M43" s="24"/>
+      <c r="N43" s="24"/>
+    </row>
+    <row r="44" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A44" s="8"/>
+      <c r="B44" s="24"/>
+      <c r="C44" s="27"/>
+      <c r="D44" s="27"/>
+      <c r="E44" s="24"/>
+      <c r="F44" s="27"/>
+      <c r="G44" s="24"/>
+      <c r="H44" s="24"/>
+      <c r="I44" s="24"/>
+      <c r="J44" s="24"/>
+      <c r="K44" s="29"/>
+      <c r="L44" s="24"/>
+      <c r="M44" s="24"/>
+      <c r="N44" s="24"/>
+    </row>
+    <row r="45" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A45" s="8"/>
+      <c r="B45" s="24"/>
+      <c r="C45" s="27"/>
+      <c r="D45" s="27"/>
+      <c r="E45" s="24"/>
+      <c r="F45" s="24"/>
+      <c r="G45" s="24"/>
+      <c r="H45" s="24"/>
+      <c r="I45" s="24"/>
+      <c r="J45" s="24"/>
+      <c r="K45" s="29"/>
+      <c r="L45" s="24"/>
+      <c r="M45" s="24"/>
+      <c r="N45" s="24"/>
+    </row>
+    <row r="46" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A46" s="8"/>
+      <c r="B46" s="24"/>
+      <c r="C46" s="27"/>
+      <c r="D46" s="27"/>
+      <c r="E46" s="24"/>
+      <c r="F46" s="24"/>
+      <c r="G46" s="24"/>
+      <c r="H46" s="24"/>
+      <c r="I46" s="24"/>
+      <c r="J46" s="24"/>
+      <c r="K46" s="29"/>
+      <c r="L46" s="24"/>
+      <c r="M46" s="24"/>
+      <c r="N46" s="24"/>
+    </row>
+    <row r="47" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A47" s="8"/>
+      <c r="B47" s="24"/>
+      <c r="C47" s="27"/>
+      <c r="D47" s="27"/>
+      <c r="E47" s="24"/>
+      <c r="F47" s="24"/>
+      <c r="G47" s="24"/>
+      <c r="H47" s="24"/>
+      <c r="I47" s="24"/>
+      <c r="J47" s="24"/>
+      <c r="K47" s="29"/>
+      <c r="L47" s="24"/>
+      <c r="M47" s="24"/>
+      <c r="N47" s="24"/>
+    </row>
+    <row r="48" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A48" s="8"/>
+      <c r="B48" s="24"/>
+      <c r="C48" s="27"/>
+      <c r="D48" s="27"/>
+      <c r="E48" s="24"/>
+      <c r="F48" s="24"/>
+      <c r="G48" s="24"/>
+      <c r="H48" s="24"/>
+      <c r="I48" s="24"/>
+      <c r="J48" s="24"/>
+      <c r="K48" s="29"/>
+      <c r="L48" s="24"/>
+      <c r="M48" s="24"/>
+      <c r="N48" s="24"/>
+    </row>
+    <row r="49" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A49" s="8"/>
+      <c r="B49" s="24"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="24"/>
+      <c r="F49" s="24"/>
+      <c r="G49" s="24"/>
+      <c r="H49" s="24"/>
+      <c r="I49" s="24"/>
+      <c r="J49" s="24"/>
+      <c r="K49" s="29"/>
+      <c r="L49" s="24"/>
+      <c r="M49" s="24"/>
+      <c r="N49" s="24"/>
+    </row>
+    <row r="50" spans="1:14" x14ac:dyDescent="0.25">
+      <c r="A50" s="8"/>
+      <c r="B50" s="24"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="24"/>
+      <c r="F50" s="24"/>
+      <c r="G50" s="24"/>
+      <c r="H50" s="24"/>
+      <c r="I50" s="24"/>
+      <c r="J50" s="24"/>
+      <c r="K50" s="29"/>
+      <c r="L50" s="24"/>
+      <c r="M50" s="24"/>
+      <c r="N50" s="24"/>
+    </row>
+  </sheetData>
+  <hyperlinks>
+    <hyperlink ref="K2" r:id="rId1" xr:uid="{CC578CE4-ED93-4F8B-B832-BFA553C2C464}"/>
+    <hyperlink ref="K3" r:id="rId2" xr:uid="{67396722-7B6C-41D9-B241-9480D94B6483}"/>
+    <hyperlink ref="K4" r:id="rId3" xr:uid="{6801728E-7CA1-4CB8-9E99-121A7F281A53}"/>
+    <hyperlink ref="K5" r:id="rId4" xr:uid="{DFC38A04-F6F9-4D4E-AF18-664D5AD3819A}"/>
+    <hyperlink ref="K7" r:id="rId5" xr:uid="{DCC985F8-8378-4BFC-9433-A3730786090E}"/>
+  </hyperlinks>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup orientation="portrait" horizontalDpi="300" verticalDpi="300" r:id="rId6"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{4D9420D8-0552-4E79-AEA3-A151149C913C}">
+  <dimension ref="A1:D212"/>
+  <sheetViews>
+    <sheetView tabSelected="1" topLeftCell="A178" workbookViewId="0">
+      <selection activeCell="C207" sqref="C207"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <cols>
+    <col min="1" max="1" width="15.85546875" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="20.42578125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="31.7109375" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="55.140625" customWidth="1"/>
+    <col min="8" max="8" width="28" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="46.28515625" bestFit="1" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="1" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A1" s="2" t="s">
+        <v>50</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>777</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>51</v>
+      </c>
+      <c r="D1" s="3" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="2" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A2" t="s">
+        <v>912</v>
+      </c>
+      <c r="B2" t="s">
+        <v>917</v>
+      </c>
+      <c r="C2" t="s">
+        <v>630</v>
+      </c>
+      <c r="D2" t="s">
+        <v>918</v>
+      </c>
+    </row>
+    <row r="3" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A3" t="s">
+        <v>990</v>
+      </c>
+      <c r="B3" t="s">
+        <v>917</v>
+      </c>
+      <c r="C3" t="s">
+        <v>306</v>
+      </c>
+      <c r="D3" t="s">
+        <v>919</v>
+      </c>
+    </row>
+    <row r="4" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A4" t="s">
+        <v>991</v>
+      </c>
+      <c r="B4" t="s">
+        <v>917</v>
+      </c>
+      <c r="C4" t="s">
+        <v>920</v>
+      </c>
+      <c r="D4" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="5" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A5" t="s">
+        <v>992</v>
+      </c>
+      <c r="B5" t="s">
+        <v>917</v>
+      </c>
+      <c r="C5" t="s">
+        <v>922</v>
+      </c>
+      <c r="D5" t="s">
+        <v>923</v>
+      </c>
+    </row>
+    <row r="6" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A6" t="s">
+        <v>993</v>
+      </c>
+      <c r="B6" t="s">
+        <v>917</v>
+      </c>
+      <c r="C6" t="s">
+        <v>924</v>
+      </c>
+      <c r="D6" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="7" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A7" t="s">
+        <v>994</v>
+      </c>
+      <c r="B7" t="s">
+        <v>917</v>
+      </c>
+      <c r="C7" t="s">
+        <v>926</v>
+      </c>
+      <c r="D7" t="s">
+        <v>927</v>
+      </c>
+    </row>
+    <row r="8" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A8" t="s">
+        <v>995</v>
+      </c>
+      <c r="B8" t="s">
+        <v>917</v>
+      </c>
+      <c r="C8" t="s">
+        <v>258</v>
+      </c>
+      <c r="D8" t="s">
+        <v>928</v>
+      </c>
+    </row>
+    <row r="9" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A9" t="s">
+        <v>996</v>
+      </c>
+      <c r="B9" t="s">
+        <v>917</v>
+      </c>
+      <c r="C9" t="s">
+        <v>929</v>
+      </c>
+      <c r="D9" t="s">
+        <v>930</v>
+      </c>
+    </row>
+    <row r="10" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A10" t="s">
+        <v>997</v>
+      </c>
+      <c r="B10" t="s">
+        <v>917</v>
+      </c>
+      <c r="C10" t="s">
+        <v>931</v>
+      </c>
+      <c r="D10" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="11" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A11" t="s">
+        <v>998</v>
+      </c>
+      <c r="B11" t="s">
+        <v>917</v>
+      </c>
+      <c r="C11" t="s">
+        <v>932</v>
+      </c>
+      <c r="D11" t="s">
+        <v>119</v>
+      </c>
+    </row>
+    <row r="12" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A12" t="s">
+        <v>999</v>
+      </c>
+      <c r="B12" t="s">
+        <v>917</v>
+      </c>
+      <c r="C12" t="s">
+        <v>933</v>
+      </c>
+      <c r="D12" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="13" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A13" t="s">
+        <v>1000</v>
+      </c>
+      <c r="B13" t="s">
+        <v>935</v>
+      </c>
+      <c r="C13" t="s">
+        <v>254</v>
+      </c>
+      <c r="D13" t="s">
+        <v>936</v>
+      </c>
+    </row>
+    <row r="14" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A14" t="s">
+        <v>1001</v>
+      </c>
+      <c r="B14" t="s">
+        <v>935</v>
+      </c>
+      <c r="C14" t="s">
+        <v>937</v>
+      </c>
+    </row>
+    <row r="15" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A15" t="s">
+        <v>1002</v>
+      </c>
+      <c r="B15" t="s">
+        <v>935</v>
+      </c>
+      <c r="C15" t="s">
+        <v>252</v>
+      </c>
+      <c r="D15" t="s">
+        <v>938</v>
+      </c>
+    </row>
+    <row r="16" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A16" t="s">
+        <v>1003</v>
+      </c>
+      <c r="B16" t="s">
+        <v>935</v>
+      </c>
+      <c r="C16" t="s">
+        <v>939</v>
+      </c>
+      <c r="D16" t="s">
+        <v>940</v>
+      </c>
+    </row>
+    <row r="17" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A17" t="s">
+        <v>1004</v>
+      </c>
+      <c r="B17" t="s">
+        <v>935</v>
+      </c>
+      <c r="C17" t="s">
+        <v>941</v>
+      </c>
+      <c r="D17" t="s">
+        <v>942</v>
+      </c>
+    </row>
+    <row r="18" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A18" t="s">
+        <v>1005</v>
+      </c>
+      <c r="B18" t="s">
+        <v>935</v>
+      </c>
+      <c r="C18" t="s">
+        <v>943</v>
+      </c>
+      <c r="D18" t="s">
+        <v>925</v>
+      </c>
+    </row>
+    <row r="19" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A19" t="s">
+        <v>1006</v>
+      </c>
+      <c r="B19" t="s">
+        <v>931</v>
+      </c>
+      <c r="C19" t="s">
+        <v>944</v>
+      </c>
+      <c r="D19" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="20" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A20" t="s">
+        <v>1007</v>
+      </c>
+      <c r="B20" t="s">
+        <v>931</v>
+      </c>
+      <c r="C20" t="s">
+        <v>945</v>
+      </c>
+      <c r="D20" t="s">
+        <v>946</v>
+      </c>
+    </row>
+    <row r="21" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A21" t="s">
+        <v>1008</v>
+      </c>
+      <c r="B21" t="s">
+        <v>931</v>
+      </c>
+      <c r="C21" t="s">
+        <v>258</v>
+      </c>
+    </row>
+    <row r="22" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A22" t="s">
+        <v>1009</v>
+      </c>
+      <c r="B22" t="s">
+        <v>931</v>
+      </c>
+      <c r="C22" t="s">
+        <v>947</v>
+      </c>
+      <c r="D22" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="23" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A23" t="s">
+        <v>1010</v>
+      </c>
+      <c r="B23" t="s">
+        <v>931</v>
+      </c>
+      <c r="C23" t="s">
+        <v>949</v>
+      </c>
+      <c r="D23" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="24" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A24" t="s">
+        <v>1011</v>
+      </c>
+      <c r="B24" t="s">
+        <v>931</v>
+      </c>
+      <c r="C24" t="s">
+        <v>950</v>
+      </c>
+      <c r="D24" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="25" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A25" t="s">
+        <v>1012</v>
+      </c>
+      <c r="B25" t="s">
+        <v>931</v>
+      </c>
+      <c r="C25" t="s">
+        <v>952</v>
+      </c>
+      <c r="D25">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="26" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A26" t="s">
+        <v>1013</v>
+      </c>
+      <c r="B26" t="s">
+        <v>931</v>
+      </c>
+      <c r="C26" t="s">
+        <v>953</v>
+      </c>
+      <c r="D26">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="27" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A27" t="s">
+        <v>1014</v>
+      </c>
+      <c r="B27" t="s">
+        <v>931</v>
+      </c>
+      <c r="C27" t="s">
+        <v>263</v>
+      </c>
+      <c r="D27" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="28" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A28" t="s">
+        <v>1015</v>
+      </c>
+      <c r="B28" t="s">
+        <v>929</v>
+      </c>
+      <c r="C28" t="s">
+        <v>955</v>
+      </c>
+      <c r="D28" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="29" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A29" t="s">
+        <v>1016</v>
+      </c>
+      <c r="B29" t="s">
+        <v>929</v>
+      </c>
+      <c r="C29" t="s">
+        <v>956</v>
+      </c>
+      <c r="D29" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="30" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A30" t="s">
+        <v>1017</v>
+      </c>
+      <c r="B30" t="s">
+        <v>929</v>
+      </c>
+      <c r="C30" t="s">
+        <v>958</v>
+      </c>
+      <c r="D30" t="s">
+        <v>959</v>
+      </c>
+    </row>
+    <row r="31" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A31" t="s">
+        <v>1018</v>
+      </c>
+      <c r="B31" t="s">
+        <v>960</v>
+      </c>
+      <c r="C31" t="s">
+        <v>961</v>
+      </c>
+      <c r="D31" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="32" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A32" t="s">
+        <v>1019</v>
+      </c>
+      <c r="B32" t="s">
+        <v>962</v>
+      </c>
+      <c r="C32" t="s">
+        <v>963</v>
+      </c>
+      <c r="D32" t="s">
+        <v>964</v>
+      </c>
+    </row>
+    <row r="33" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A33" t="s">
+        <v>1020</v>
+      </c>
+      <c r="B33" t="s">
+        <v>965</v>
+      </c>
+      <c r="C33" t="s">
+        <v>522</v>
+      </c>
+      <c r="D33" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="34" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A34" t="s">
+        <v>1021</v>
+      </c>
+      <c r="B34" t="s">
+        <v>965</v>
+      </c>
+      <c r="C34" t="s">
+        <v>966</v>
+      </c>
+      <c r="D34" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="35" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A35" t="s">
+        <v>1022</v>
+      </c>
+      <c r="B35" t="s">
+        <v>965</v>
+      </c>
+      <c r="C35" t="s">
+        <v>374</v>
+      </c>
+      <c r="D35" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="36" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A36" t="s">
+        <v>1023</v>
+      </c>
+      <c r="B36" t="s">
+        <v>969</v>
+      </c>
+      <c r="C36" t="s">
+        <v>970</v>
+      </c>
+      <c r="D36" t="s">
+        <v>987</v>
+      </c>
+    </row>
+    <row r="37" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A37" t="s">
+        <v>1024</v>
+      </c>
+      <c r="B37" t="s">
+        <v>969</v>
+      </c>
+      <c r="C37" t="s">
+        <v>971</v>
+      </c>
+      <c r="D37" t="s">
+        <v>988</v>
+      </c>
+    </row>
+    <row r="38" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A38" t="s">
+        <v>1025</v>
+      </c>
+      <c r="B38" t="s">
+        <v>972</v>
+      </c>
+      <c r="C38" t="s">
+        <v>346</v>
+      </c>
+      <c r="D38" t="s">
+        <v>973</v>
+      </c>
+    </row>
+    <row r="39" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A39" t="s">
+        <v>1026</v>
+      </c>
+      <c r="B39" t="s">
+        <v>972</v>
+      </c>
+      <c r="C39" t="s">
+        <v>974</v>
+      </c>
+      <c r="D39" t="s">
+        <v>989</v>
+      </c>
+    </row>
+    <row r="40" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A40" t="s">
+        <v>1027</v>
+      </c>
+      <c r="B40" t="s">
+        <v>972</v>
+      </c>
+      <c r="C40" t="s">
+        <v>291</v>
+      </c>
+      <c r="D40" t="s">
+        <v>975</v>
+      </c>
+    </row>
+    <row r="41" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A41" t="s">
+        <v>1028</v>
+      </c>
+      <c r="B41" t="s">
+        <v>976</v>
+      </c>
+      <c r="C41" t="s">
+        <v>977</v>
+      </c>
+      <c r="D41" t="s">
+        <v>978</v>
+      </c>
+    </row>
+    <row r="42" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A42" t="s">
+        <v>1029</v>
+      </c>
+      <c r="B42" t="s">
+        <v>979</v>
+      </c>
+      <c r="C42" t="s">
+        <v>980</v>
+      </c>
+      <c r="D42" t="s">
+        <v>981</v>
+      </c>
+    </row>
+    <row r="43" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A43" t="s">
+        <v>1030</v>
+      </c>
+      <c r="B43" t="s">
+        <v>982</v>
+      </c>
+      <c r="C43" t="s">
+        <v>983</v>
+      </c>
+      <c r="D43" t="s">
+        <v>984</v>
+      </c>
+    </row>
+    <row r="44" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A44" t="s">
+        <v>1031</v>
+      </c>
+      <c r="B44" t="s">
+        <v>982</v>
+      </c>
+      <c r="C44" t="s">
+        <v>985</v>
+      </c>
+      <c r="D44" t="s">
+        <v>986</v>
+      </c>
+    </row>
+    <row r="45" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A45" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B45" t="s">
+        <v>917</v>
+      </c>
+      <c r="C45" t="s">
+        <v>630</v>
+      </c>
+      <c r="D45" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="46" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A46" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B46" t="s">
+        <v>917</v>
+      </c>
+      <c r="C46" t="s">
+        <v>920</v>
+      </c>
+      <c r="D46" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="47" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A47" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B47" t="s">
+        <v>917</v>
+      </c>
+      <c r="C47" t="s">
+        <v>1041</v>
+      </c>
+      <c r="D47" t="s">
+        <v>1042</v>
+      </c>
+    </row>
+    <row r="48" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A48" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B48" t="s">
+        <v>917</v>
+      </c>
+      <c r="C48" t="s">
+        <v>922</v>
+      </c>
+      <c r="D48" t="s">
+        <v>1043</v>
+      </c>
+    </row>
+    <row r="49" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A49" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B49" t="s">
+        <v>917</v>
+      </c>
+      <c r="C49" t="s">
+        <v>924</v>
+      </c>
+      <c r="D49" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="50" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A50" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B50" t="s">
+        <v>917</v>
+      </c>
+      <c r="C50" t="s">
+        <v>926</v>
+      </c>
+      <c r="D50" t="s">
+        <v>1045</v>
+      </c>
+    </row>
+    <row r="51" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A51" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B51" t="s">
+        <v>917</v>
+      </c>
+      <c r="C51" t="s">
+        <v>258</v>
+      </c>
+      <c r="D51" t="s">
+        <v>1046</v>
+      </c>
+    </row>
+    <row r="52" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A52" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B52" t="s">
+        <v>917</v>
+      </c>
+      <c r="C52" t="s">
+        <v>929</v>
+      </c>
+      <c r="D52" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="53" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A53" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B53" t="s">
+        <v>917</v>
+      </c>
+      <c r="C53" t="s">
+        <v>931</v>
+      </c>
+      <c r="D53" t="s">
+        <v>1048</v>
+      </c>
+    </row>
+    <row r="54" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A54" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B54" t="s">
+        <v>917</v>
+      </c>
+      <c r="C54" t="s">
+        <v>932</v>
+      </c>
+      <c r="D54" t="s">
+        <v>1049</v>
+      </c>
+    </row>
+    <row r="55" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A55" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B55" t="s">
+        <v>917</v>
+      </c>
+      <c r="C55" t="s">
+        <v>933</v>
+      </c>
+      <c r="D55" t="s">
+        <v>934</v>
+      </c>
+    </row>
+    <row r="56" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A56" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B56" t="s">
+        <v>935</v>
+      </c>
+      <c r="C56" t="s">
+        <v>254</v>
+      </c>
+      <c r="D56" t="s">
+        <v>255</v>
+      </c>
+    </row>
+    <row r="57" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A57" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B57" t="s">
+        <v>937</v>
+      </c>
+      <c r="C57" t="s">
+        <v>252</v>
+      </c>
+      <c r="D57" t="s">
+        <v>1050</v>
+      </c>
+    </row>
+    <row r="58" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A58" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B58" t="s">
+        <v>937</v>
+      </c>
+      <c r="C58" t="s">
+        <v>939</v>
+      </c>
+      <c r="D58" t="s">
+        <v>1051</v>
+      </c>
+    </row>
+    <row r="59" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A59" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B59" t="s">
+        <v>937</v>
+      </c>
+      <c r="C59" t="s">
+        <v>941</v>
+      </c>
+      <c r="D59" t="s">
+        <v>1052</v>
+      </c>
+    </row>
+    <row r="60" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A60" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B60" t="s">
+        <v>937</v>
+      </c>
+      <c r="C60" t="s">
+        <v>943</v>
+      </c>
+      <c r="D60" t="s">
+        <v>1044</v>
+      </c>
+    </row>
+    <row r="61" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A61" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B61" t="s">
+        <v>931</v>
+      </c>
+      <c r="C61" t="s">
+        <v>944</v>
+      </c>
+      <c r="D61" t="s">
+        <v>1053</v>
+      </c>
+    </row>
+    <row r="62" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A62" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B62" t="s">
+        <v>931</v>
+      </c>
+      <c r="C62" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D62" t="s">
+        <v>1055</v>
+      </c>
+    </row>
+    <row r="63" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A63" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B63" t="s">
+        <v>931</v>
+      </c>
+      <c r="C63" t="s">
+        <v>741</v>
+      </c>
+      <c r="D63" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="64" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A64" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B64" t="s">
+        <v>258</v>
+      </c>
+      <c r="C64" t="s">
+        <v>947</v>
+      </c>
+      <c r="D64" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="65" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A65" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B65" t="s">
+        <v>258</v>
+      </c>
+      <c r="C65" t="s">
+        <v>949</v>
+      </c>
+      <c r="D65" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="66" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A66" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B66" t="s">
+        <v>258</v>
+      </c>
+      <c r="C66" t="s">
+        <v>950</v>
+      </c>
+      <c r="D66" t="s">
+        <v>1057</v>
+      </c>
+    </row>
+    <row r="67" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A67" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B67" t="s">
+        <v>258</v>
+      </c>
+      <c r="C67" t="s">
+        <v>952</v>
+      </c>
+      <c r="D67">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="68" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A68" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B68" t="s">
+        <v>258</v>
+      </c>
+      <c r="C68" t="s">
+        <v>953</v>
+      </c>
+      <c r="D68">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="69" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A69" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B69" t="s">
+        <v>258</v>
+      </c>
+      <c r="C69" t="s">
+        <v>263</v>
+      </c>
+      <c r="D69" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="70" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A70" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B70" t="s">
+        <v>929</v>
+      </c>
+      <c r="C70" t="s">
+        <v>955</v>
+      </c>
+      <c r="D70" t="s">
+        <v>1058</v>
+      </c>
+    </row>
+    <row r="71" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A71" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B71" t="s">
+        <v>929</v>
+      </c>
+      <c r="C71" t="s">
+        <v>956</v>
+      </c>
+      <c r="D71" t="s">
+        <v>1059</v>
+      </c>
+    </row>
+    <row r="72" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A72" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B72" t="s">
+        <v>929</v>
+      </c>
+      <c r="C72" t="s">
+        <v>958</v>
+      </c>
+      <c r="D72" t="s">
+        <v>1060</v>
+      </c>
+    </row>
+    <row r="73" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A73" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B73" t="s">
+        <v>929</v>
+      </c>
+      <c r="C73" t="s">
+        <v>1061</v>
+      </c>
+      <c r="D73" t="s">
+        <v>1047</v>
+      </c>
+    </row>
+    <row r="74" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A74" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B74" t="s">
+        <v>960</v>
+      </c>
+      <c r="C74" t="s">
+        <v>961</v>
+      </c>
+      <c r="D74" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="75" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A75" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B75" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C75" t="s">
+        <v>1063</v>
+      </c>
+      <c r="D75" t="s">
+        <v>1064</v>
+      </c>
+    </row>
+    <row r="76" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A76" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B76" t="s">
+        <v>965</v>
+      </c>
+      <c r="C76" t="s">
+        <v>522</v>
+      </c>
+      <c r="D76" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="77" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A77" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B77" t="s">
+        <v>965</v>
+      </c>
+      <c r="C77" t="s">
+        <v>966</v>
+      </c>
+      <c r="D77" t="s">
+        <v>1065</v>
+      </c>
+    </row>
+    <row r="78" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A78" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B78" t="s">
+        <v>965</v>
+      </c>
+      <c r="C78" t="s">
+        <v>374</v>
+      </c>
+      <c r="D78" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="79" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A79" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B79" t="s">
+        <v>969</v>
+      </c>
+      <c r="C79" t="s">
+        <v>970</v>
+      </c>
+      <c r="D79" t="s">
+        <v>1072</v>
+      </c>
+    </row>
+    <row r="80" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A80" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B80" t="s">
+        <v>969</v>
+      </c>
+      <c r="C80" t="s">
+        <v>971</v>
+      </c>
+      <c r="D80" t="s">
+        <v>1066</v>
+      </c>
+    </row>
+    <row r="81" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A81" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B81" t="s">
+        <v>972</v>
+      </c>
+      <c r="C81" t="s">
+        <v>346</v>
+      </c>
+      <c r="D81" t="s">
+        <v>1067</v>
+      </c>
+    </row>
+    <row r="82" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A82" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B82" t="s">
+        <v>972</v>
+      </c>
+      <c r="C82" t="s">
+        <v>974</v>
+      </c>
+      <c r="D82" t="s">
+        <v>1073</v>
+      </c>
+    </row>
+    <row r="83" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A83" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B83" t="s">
+        <v>979</v>
+      </c>
+      <c r="C83" t="s">
+        <v>980</v>
+      </c>
+      <c r="D83" t="s">
+        <v>1068</v>
+      </c>
+    </row>
+    <row r="84" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A84" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B84" t="s">
+        <v>976</v>
+      </c>
+      <c r="C84" t="s">
+        <v>977</v>
+      </c>
+      <c r="D84" t="s">
+        <v>1069</v>
+      </c>
+    </row>
+    <row r="85" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A85" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B85" t="s">
+        <v>982</v>
+      </c>
+      <c r="C85" t="s">
+        <v>983</v>
+      </c>
+      <c r="D85" t="s">
+        <v>1070</v>
+      </c>
+    </row>
+    <row r="86" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A86" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B86" t="s">
+        <v>982</v>
+      </c>
+      <c r="C86" t="s">
+        <v>985</v>
+      </c>
+      <c r="D86" t="s">
+        <v>1071</v>
+      </c>
+    </row>
+    <row r="87" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A87" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B87" t="s">
+        <v>917</v>
+      </c>
+      <c r="C87" t="s">
+        <v>644</v>
+      </c>
+      <c r="D87" t="s">
+        <v>1081</v>
+      </c>
+    </row>
+    <row r="88" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A88" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B88" t="s">
+        <v>917</v>
+      </c>
+      <c r="C88" t="s">
+        <v>933</v>
+      </c>
+      <c r="D88" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="89" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A89" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B89" t="s">
+        <v>917</v>
+      </c>
+      <c r="C89" t="s">
+        <v>937</v>
+      </c>
+      <c r="D89" t="s">
+        <v>1083</v>
+      </c>
+    </row>
+    <row r="90" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A90" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B90" t="s">
+        <v>917</v>
+      </c>
+      <c r="C90" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D90" t="s">
+        <v>1085</v>
+      </c>
+    </row>
+    <row r="91" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A91" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B91" t="s">
+        <v>917</v>
+      </c>
+      <c r="C91" t="s">
+        <v>258</v>
+      </c>
+      <c r="D91" t="s">
+        <v>948</v>
+      </c>
+    </row>
+    <row r="92" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A92" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B92" t="s">
+        <v>917</v>
+      </c>
+      <c r="C92" t="s">
+        <v>929</v>
+      </c>
+      <c r="D92" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="93" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A93" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B93" t="s">
+        <v>917</v>
+      </c>
+      <c r="C93" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D93" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="94" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A94" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B94" t="s">
+        <v>917</v>
+      </c>
+      <c r="C94" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D94" t="s">
+        <v>1088</v>
+      </c>
+    </row>
+    <row r="95" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A95" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B95" t="s">
+        <v>917</v>
+      </c>
+      <c r="C95" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D95" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="96" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A96" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B96" t="s">
+        <v>917</v>
+      </c>
+      <c r="C96" t="s">
+        <v>985</v>
+      </c>
+      <c r="D96" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="97" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A97" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B97" t="s">
+        <v>917</v>
+      </c>
+      <c r="C97" t="s">
+        <v>1092</v>
+      </c>
+      <c r="D97" t="s">
+        <v>1093</v>
+      </c>
+    </row>
+    <row r="98" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A98" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B98" t="s">
+        <v>937</v>
+      </c>
+      <c r="C98" t="s">
+        <v>252</v>
+      </c>
+      <c r="D98" t="s">
+        <v>1094</v>
+      </c>
+    </row>
+    <row r="99" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A99" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B99" t="s">
+        <v>937</v>
+      </c>
+      <c r="C99" t="s">
+        <v>939</v>
+      </c>
+      <c r="D99" t="s">
+        <v>1095</v>
+      </c>
+    </row>
+    <row r="100" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A100" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B100" t="s">
+        <v>937</v>
+      </c>
+      <c r="C100" t="s">
+        <v>2</v>
+      </c>
+      <c r="D100" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="101" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A101" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B101" t="s">
+        <v>937</v>
+      </c>
+      <c r="C101" t="s">
+        <v>1097</v>
+      </c>
+      <c r="D101" t="s">
+        <v>1098</v>
+      </c>
+    </row>
+    <row r="102" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A102" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B102" t="s">
+        <v>937</v>
+      </c>
+      <c r="C102" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D102" t="s">
+        <v>1100</v>
+      </c>
+    </row>
+    <row r="103" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A103" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B103" t="s">
+        <v>937</v>
+      </c>
+      <c r="C103" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D103" t="s">
+        <v>1102</v>
+      </c>
+    </row>
+    <row r="104" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A104" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B104" t="s">
+        <v>962</v>
+      </c>
+      <c r="C104" t="s">
+        <v>963</v>
+      </c>
+      <c r="D104" t="s">
+        <v>1103</v>
+      </c>
+    </row>
+    <row r="105" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A105" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B105" t="s">
+        <v>962</v>
+      </c>
+      <c r="C105" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D105" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="106" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A106" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B106" t="s">
+        <v>962</v>
+      </c>
+      <c r="C106" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D106" t="s">
+        <v>1106</v>
+      </c>
+    </row>
+    <row r="107" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A107" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B107" t="s">
+        <v>962</v>
+      </c>
+      <c r="C107" t="s">
+        <v>1107</v>
+      </c>
+      <c r="D107" t="s">
+        <v>1141</v>
+      </c>
+    </row>
+    <row r="108" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A108" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B108" t="s">
+        <v>933</v>
+      </c>
+      <c r="C108" t="s">
+        <v>933</v>
+      </c>
+      <c r="D108" t="s">
+        <v>1082</v>
+      </c>
+    </row>
+    <row r="109" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A109" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B109" t="s">
+        <v>931</v>
+      </c>
+      <c r="C109" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D109" t="s">
+        <v>1087</v>
+      </c>
+    </row>
+    <row r="110" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A110" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B110" t="s">
+        <v>931</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D110" t="s">
+        <v>1109</v>
+      </c>
+    </row>
+    <row r="111" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A111" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B111" t="s">
+        <v>931</v>
+      </c>
+      <c r="C111" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D111" t="s">
+        <v>1111</v>
+      </c>
+    </row>
+    <row r="112" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A112" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B112" t="s">
+        <v>929</v>
+      </c>
+      <c r="C112" t="s">
+        <v>955</v>
+      </c>
+      <c r="D112" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="113" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A113" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B113" t="s">
+        <v>929</v>
+      </c>
+      <c r="C113" t="s">
+        <v>956</v>
+      </c>
+      <c r="D113" t="s">
+        <v>957</v>
+      </c>
+    </row>
+    <row r="114" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A114" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B114" t="s">
+        <v>929</v>
+      </c>
+      <c r="C114" t="s">
+        <v>958</v>
+      </c>
+      <c r="D114" t="s">
+        <v>1112</v>
+      </c>
+    </row>
+    <row r="115" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A115" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B115" t="s">
+        <v>929</v>
+      </c>
+      <c r="C115" t="s">
+        <v>1113</v>
+      </c>
+      <c r="D115" t="s">
+        <v>516</v>
+      </c>
+    </row>
+    <row r="116" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A116" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B116" t="s">
+        <v>258</v>
+      </c>
+      <c r="C116" t="s">
+        <v>258</v>
+      </c>
+      <c r="D116" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="117" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A117" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B117" t="s">
+        <v>258</v>
+      </c>
+      <c r="C117" t="s">
+        <v>949</v>
+      </c>
+      <c r="D117" t="s">
+        <v>1115</v>
+      </c>
+    </row>
+    <row r="118" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A118" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B118" t="s">
+        <v>258</v>
+      </c>
+      <c r="C118" t="s">
+        <v>950</v>
+      </c>
+      <c r="D118" t="s">
+        <v>951</v>
+      </c>
+    </row>
+    <row r="119" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A119" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B119" t="s">
+        <v>960</v>
+      </c>
+      <c r="C119" t="s">
+        <v>961</v>
+      </c>
+      <c r="D119" t="s">
+        <v>85</v>
+      </c>
+    </row>
+    <row r="120" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A120" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B120" t="s">
+        <v>965</v>
+      </c>
+      <c r="C120" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D120" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="121" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A121" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B121" t="s">
+        <v>965</v>
+      </c>
+      <c r="C121" t="s">
+        <v>966</v>
+      </c>
+      <c r="D121" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="122" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A122" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B122" t="s">
+        <v>965</v>
+      </c>
+      <c r="C122" t="s">
+        <v>374</v>
+      </c>
+      <c r="D122" t="s">
+        <v>968</v>
+      </c>
+    </row>
+    <row r="123" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A123" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B123" t="s">
+        <v>733</v>
+      </c>
+      <c r="C123" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D123">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="124" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A124" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B124" t="s">
+        <v>733</v>
+      </c>
+      <c r="C124" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D124" t="s">
+        <v>1119</v>
+      </c>
+    </row>
+    <row r="125" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A125" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B125" t="s">
+        <v>733</v>
+      </c>
+      <c r="C125" t="s">
+        <v>300</v>
+      </c>
+      <c r="D125" t="s">
+        <v>1120</v>
+      </c>
+    </row>
+    <row r="126" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A126" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B126" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C126" t="s">
+        <v>1062</v>
+      </c>
+      <c r="D126" t="s">
+        <v>1121</v>
+      </c>
+    </row>
+    <row r="127" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A127" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B127" t="s">
+        <v>1062</v>
+      </c>
+      <c r="C127" t="s">
+        <v>1122</v>
+      </c>
+      <c r="D127" t="s">
+        <v>1123</v>
+      </c>
+    </row>
+    <row r="128" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A128" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B128" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C128" t="s">
+        <v>1125</v>
+      </c>
+      <c r="D128" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="129" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A129" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B129" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C129" t="s">
+        <v>976</v>
+      </c>
+      <c r="D129" t="s">
+        <v>1126</v>
+      </c>
+    </row>
+    <row r="130" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A130" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B130" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C130" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D130" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="131" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A131" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B131" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C131" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D131" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="132" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A132" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B132" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C132" t="s">
+        <v>1130</v>
+      </c>
+      <c r="D132" t="s">
+        <v>1131</v>
+      </c>
+    </row>
+    <row r="133" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A133" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B133" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C133" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D133" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="134" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A134" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B134" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C134" t="s">
+        <v>630</v>
+      </c>
+      <c r="D134" t="s">
+        <v>1135</v>
+      </c>
+    </row>
+    <row r="135" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A135" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B135" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C135" t="s">
+        <v>920</v>
+      </c>
+      <c r="D135" t="s">
+        <v>921</v>
+      </c>
+    </row>
+    <row r="136" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A136" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B136" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C136" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D136" t="s">
+        <v>1138</v>
+      </c>
+    </row>
+    <row r="137" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A137" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B137" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C137" t="s">
+        <v>1139</v>
+      </c>
+      <c r="D137" t="s">
+        <v>1140</v>
+      </c>
+    </row>
+    <row r="138" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A138" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B138" t="s">
+        <v>982</v>
+      </c>
+      <c r="C138" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D138" t="s">
+        <v>1090</v>
+      </c>
+    </row>
+    <row r="139" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A139" s="9" t="s">
+        <v>1035</v>
+      </c>
+      <c r="B139" t="s">
+        <v>982</v>
+      </c>
+      <c r="C139" t="s">
+        <v>985</v>
+      </c>
+      <c r="D139" t="s">
+        <v>1091</v>
+      </c>
+    </row>
+    <row r="140" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A140" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B140" t="s">
+        <v>917</v>
+      </c>
+      <c r="C140" t="s">
+        <v>933</v>
+      </c>
+      <c r="D140" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="141" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A141" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B141" t="s">
+        <v>917</v>
+      </c>
+      <c r="C141" t="s">
+        <v>937</v>
+      </c>
+      <c r="D141" t="s">
+        <v>1149</v>
+      </c>
+    </row>
+    <row r="142" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A142" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B142" t="s">
+        <v>917</v>
+      </c>
+      <c r="C142" t="s">
+        <v>1084</v>
+      </c>
+      <c r="D142" t="s">
+        <v>1150</v>
+      </c>
+    </row>
+    <row r="143" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A143" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B143" t="s">
+        <v>917</v>
+      </c>
+      <c r="C143" t="s">
+        <v>258</v>
+      </c>
+      <c r="D143" t="s">
+        <v>1056</v>
+      </c>
+    </row>
+    <row r="144" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A144" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B144" t="s">
+        <v>917</v>
+      </c>
+      <c r="C144" t="s">
+        <v>929</v>
+      </c>
+      <c r="D144" t="s">
+        <v>1151</v>
+      </c>
+    </row>
+    <row r="145" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A145" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B145" t="s">
+        <v>917</v>
+      </c>
+      <c r="C145" t="s">
+        <v>1086</v>
+      </c>
+      <c r="D145" t="s">
+        <v>1152</v>
+      </c>
+    </row>
+    <row r="146" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A146" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B146" t="s">
+        <v>917</v>
+      </c>
+      <c r="C146" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D146" t="s">
+        <v>1153</v>
+      </c>
+    </row>
+    <row r="147" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A147" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B147" t="s">
+        <v>917</v>
+      </c>
+      <c r="C147" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D147" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="148" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A148" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B148" t="s">
+        <v>917</v>
+      </c>
+      <c r="C148" t="s">
+        <v>985</v>
+      </c>
+      <c r="D148" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="149" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A149" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B149" t="s">
+        <v>937</v>
+      </c>
+      <c r="C149" t="s">
+        <v>252</v>
+      </c>
+      <c r="D149" t="s">
+        <v>1156</v>
+      </c>
+    </row>
+    <row r="150" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A150" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B150" t="s">
+        <v>937</v>
+      </c>
+      <c r="C150" t="s">
+        <v>939</v>
+      </c>
+      <c r="D150" t="s">
+        <v>1157</v>
+      </c>
+    </row>
+    <row r="151" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A151" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B151" t="s">
+        <v>937</v>
+      </c>
+      <c r="C151" t="s">
+        <v>1099</v>
+      </c>
+      <c r="D151" t="s">
+        <v>1158</v>
+      </c>
+    </row>
+    <row r="152" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A152" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B152" t="s">
+        <v>937</v>
+      </c>
+      <c r="C152" t="s">
+        <v>2</v>
+      </c>
+      <c r="D152" t="s">
+        <v>1096</v>
+      </c>
+    </row>
+    <row r="153" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A153" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B153" t="s">
+        <v>937</v>
+      </c>
+      <c r="C153" t="s">
+        <v>1101</v>
+      </c>
+      <c r="D153" t="s">
+        <v>1159</v>
+      </c>
+    </row>
+    <row r="154" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A154" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B154" t="s">
+        <v>962</v>
+      </c>
+      <c r="C154" t="s">
+        <v>963</v>
+      </c>
+      <c r="D154" t="s">
+        <v>1160</v>
+      </c>
+    </row>
+    <row r="155" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A155" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B155" t="s">
+        <v>962</v>
+      </c>
+      <c r="C155" t="s">
+        <v>1104</v>
+      </c>
+      <c r="D155" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="156" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A156" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B156" t="s">
+        <v>962</v>
+      </c>
+      <c r="C156" t="s">
+        <v>1161</v>
+      </c>
+      <c r="D156" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="157" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A157" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B157" t="s">
+        <v>962</v>
+      </c>
+      <c r="C157" t="s">
+        <v>1105</v>
+      </c>
+      <c r="D157" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="158" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A158" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B158" t="s">
+        <v>1163</v>
+      </c>
+      <c r="C158" t="s">
+        <v>933</v>
+      </c>
+      <c r="D158" t="s">
+        <v>1148</v>
+      </c>
+    </row>
+    <row r="159" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A159" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B159" t="s">
+        <v>931</v>
+      </c>
+      <c r="C159" t="s">
+        <v>1108</v>
+      </c>
+      <c r="D159" t="s">
+        <v>1164</v>
+      </c>
+    </row>
+    <row r="160" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A160" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B160" t="s">
+        <v>931</v>
+      </c>
+      <c r="C160" t="s">
+        <v>1054</v>
+      </c>
+      <c r="D160" t="s">
+        <v>1114</v>
+      </c>
+    </row>
+    <row r="161" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A161" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B161" t="s">
+        <v>931</v>
+      </c>
+      <c r="C161" t="s">
+        <v>1110</v>
+      </c>
+      <c r="D161" t="s">
+        <v>1165</v>
+      </c>
+    </row>
+    <row r="162" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A162" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B162" t="s">
+        <v>929</v>
+      </c>
+      <c r="C162" t="s">
+        <v>955</v>
+      </c>
+      <c r="D162" t="s">
+        <v>1166</v>
+      </c>
+    </row>
+    <row r="163" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A163" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B163" t="s">
+        <v>258</v>
+      </c>
+      <c r="C163" t="s">
+        <v>258</v>
+      </c>
+      <c r="D163" t="s">
+        <v>954</v>
+      </c>
+    </row>
+    <row r="164" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A164" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B164" t="s">
+        <v>965</v>
+      </c>
+      <c r="C164" t="s">
+        <v>1116</v>
+      </c>
+      <c r="D164" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="165" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A165" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B165" t="s">
+        <v>965</v>
+      </c>
+      <c r="C165" t="s">
+        <v>966</v>
+      </c>
+      <c r="D165" t="s">
+        <v>967</v>
+      </c>
+    </row>
+    <row r="166" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A166" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B166" t="s">
+        <v>965</v>
+      </c>
+      <c r="C166" t="s">
+        <v>374</v>
+      </c>
+      <c r="D166" t="s">
+        <v>1167</v>
+      </c>
+    </row>
+    <row r="167" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A167" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B167" t="s">
+        <v>733</v>
+      </c>
+      <c r="C167" t="s">
+        <v>1117</v>
+      </c>
+      <c r="D167" t="s">
+        <v>1168</v>
+      </c>
+    </row>
+    <row r="168" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A168" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B168" t="s">
+        <v>733</v>
+      </c>
+      <c r="C168" t="s">
+        <v>1118</v>
+      </c>
+      <c r="D168" t="s">
+        <v>1169</v>
+      </c>
+    </row>
+    <row r="169" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A169" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B169" t="s">
+        <v>733</v>
+      </c>
+      <c r="C169" t="s">
+        <v>289</v>
+      </c>
+      <c r="D169" t="s">
+        <v>1170</v>
+      </c>
+    </row>
+    <row r="170" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A170" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B170" t="s">
+        <v>1171</v>
+      </c>
+      <c r="C170" t="s">
+        <v>741</v>
+      </c>
+      <c r="D170" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="171" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A171" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B171" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C171" t="s">
+        <v>976</v>
+      </c>
+      <c r="D171" t="s">
+        <v>1172</v>
+      </c>
+    </row>
+    <row r="172" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A172" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B172" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C172" t="s">
+        <v>1127</v>
+      </c>
+      <c r="D172" t="s">
+        <v>1128</v>
+      </c>
+    </row>
+    <row r="173" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A173" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B173" t="s">
+        <v>1124</v>
+      </c>
+      <c r="C173" t="s">
+        <v>1129</v>
+      </c>
+      <c r="D173" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="174" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A174" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B174" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C174" t="s">
+        <v>1133</v>
+      </c>
+      <c r="D174" t="s">
+        <v>1134</v>
+      </c>
+    </row>
+    <row r="175" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A175" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B175" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C175" t="s">
+        <v>630</v>
+      </c>
+      <c r="D175" t="s">
+        <v>1039</v>
+      </c>
+    </row>
+    <row r="176" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A176" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B176" t="s">
+        <v>1132</v>
+      </c>
+      <c r="C176" t="s">
+        <v>920</v>
+      </c>
+      <c r="D176" t="s">
+        <v>1040</v>
+      </c>
+    </row>
+    <row r="177" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A177" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B177" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C177" t="s">
+        <v>1173</v>
+      </c>
+      <c r="D177" t="s">
+        <v>1174</v>
+      </c>
+    </row>
+    <row r="178" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A178" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B178" t="s">
+        <v>1136</v>
+      </c>
+      <c r="C178" t="s">
+        <v>1137</v>
+      </c>
+      <c r="D178" t="s">
+        <v>1175</v>
+      </c>
+    </row>
+    <row r="179" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A179" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B179" t="s">
+        <v>982</v>
+      </c>
+      <c r="C179" t="s">
+        <v>1089</v>
+      </c>
+      <c r="D179" t="s">
+        <v>1154</v>
+      </c>
+    </row>
+    <row r="180" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A180" s="9" t="s">
+        <v>1146</v>
+      </c>
+      <c r="B180" t="s">
+        <v>982</v>
+      </c>
+      <c r="C180" t="s">
+        <v>985</v>
+      </c>
+      <c r="D180" t="s">
+        <v>1155</v>
+      </c>
+    </row>
+    <row r="181" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A181" s="9" t="s">
+        <v>1177</v>
+      </c>
+      <c r="B181" t="s">
+        <v>402</v>
+      </c>
+      <c r="C181" t="s">
+        <v>630</v>
+      </c>
+      <c r="D181" t="s">
+        <v>1179</v>
+      </c>
+    </row>
+    <row r="182" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A182" s="9" t="s">
+        <v>1196</v>
+      </c>
+      <c r="B182" t="s">
+        <v>402</v>
+      </c>
+      <c r="C182" t="s">
+        <v>1180</v>
+      </c>
+      <c r="D182" t="s">
+        <v>1181</v>
+      </c>
+    </row>
+    <row r="183" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A183" s="9" t="s">
+        <v>1197</v>
+      </c>
+      <c r="B183" t="s">
+        <v>922</v>
+      </c>
+      <c r="C183" t="s">
+        <v>252</v>
+      </c>
+      <c r="D183" t="s">
+        <v>1182</v>
+      </c>
+    </row>
+    <row r="184" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A184" s="9" t="s">
+        <v>1198</v>
+      </c>
+      <c r="B184" t="s">
+        <v>922</v>
+      </c>
+      <c r="C184" t="s">
+        <v>939</v>
+      </c>
+      <c r="D184" t="s">
+        <v>1183</v>
+      </c>
+    </row>
+    <row r="185" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A185" s="9" t="s">
+        <v>1199</v>
+      </c>
+      <c r="B185" t="s">
+        <v>922</v>
+      </c>
+      <c r="C185" t="s">
+        <v>1184</v>
+      </c>
+      <c r="D185" t="s">
+        <v>1185</v>
+      </c>
+    </row>
+    <row r="186" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A186" s="9" t="s">
+        <v>1200</v>
+      </c>
+      <c r="B186" t="s">
+        <v>922</v>
+      </c>
+      <c r="C186" t="s">
+        <v>1186</v>
+      </c>
+      <c r="D186">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="187" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A187" s="9" t="s">
+        <v>1201</v>
+      </c>
+      <c r="B187" t="s">
+        <v>922</v>
+      </c>
+      <c r="C187" t="s">
+        <v>1187</v>
+      </c>
+      <c r="D187">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="188" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A188" s="9" t="s">
+        <v>1202</v>
+      </c>
+      <c r="B188" t="s">
+        <v>258</v>
+      </c>
+      <c r="C188" t="s">
+        <v>1188</v>
+      </c>
+      <c r="D188" t="s">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="189" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A189" s="9" t="s">
+        <v>1203</v>
+      </c>
+      <c r="B189" t="s">
+        <v>258</v>
+      </c>
+      <c r="C189" t="s">
+        <v>259</v>
+      </c>
+      <c r="D189" t="s">
+        <v>1189</v>
+      </c>
+    </row>
+    <row r="190" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A190" s="9" t="s">
+        <v>1204</v>
+      </c>
+      <c r="B190" t="s">
+        <v>1190</v>
+      </c>
+      <c r="C190" t="s">
+        <v>1191</v>
+      </c>
+      <c r="D190" t="s">
+        <v>1192</v>
+      </c>
+    </row>
+    <row r="191" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A191" s="9" t="s">
+        <v>1205</v>
+      </c>
+      <c r="B191" t="s">
+        <v>1193</v>
+      </c>
+      <c r="C191" t="s">
+        <v>1194</v>
+      </c>
+      <c r="D191" t="s">
+        <v>1195</v>
+      </c>
+    </row>
+    <row r="192" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A192" s="9" t="s">
+        <v>1209</v>
+      </c>
+      <c r="B192" t="s">
+        <v>962</v>
+      </c>
+      <c r="C192" t="s">
+        <v>963</v>
+      </c>
+      <c r="D192" t="s">
+        <v>1211</v>
+      </c>
+    </row>
+    <row r="193" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A193" s="9" t="s">
+        <v>1243</v>
+      </c>
+      <c r="B193" t="s">
+        <v>962</v>
+      </c>
+      <c r="C193" t="s">
+        <v>1212</v>
+      </c>
+      <c r="D193" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="194" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A194" s="9" t="s">
+        <v>1244</v>
+      </c>
+      <c r="B194" t="s">
+        <v>962</v>
+      </c>
+      <c r="C194" t="s">
+        <v>1213</v>
+      </c>
+      <c r="D194" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="195" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A195" s="9" t="s">
+        <v>1245</v>
+      </c>
+      <c r="B195" t="s">
+        <v>962</v>
+      </c>
+      <c r="C195" t="s">
+        <v>1214</v>
+      </c>
+      <c r="D195" t="s">
+        <v>1162</v>
+      </c>
+    </row>
+    <row r="196" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A196" s="9" t="s">
+        <v>1246</v>
+      </c>
+      <c r="B196" t="s">
+        <v>962</v>
+      </c>
+      <c r="C196" t="s">
+        <v>1215</v>
+      </c>
+      <c r="D196" t="s">
+        <v>1216</v>
+      </c>
+    </row>
+    <row r="197" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A197" s="9" t="s">
+        <v>1247</v>
+      </c>
+      <c r="B197" t="s">
+        <v>962</v>
+      </c>
+      <c r="C197" t="s">
+        <v>1217</v>
+      </c>
+      <c r="D197" t="s">
+        <v>1218</v>
+      </c>
+    </row>
+    <row r="198" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A198" s="9" t="s">
+        <v>1248</v>
+      </c>
+      <c r="B198" t="s">
+        <v>962</v>
+      </c>
+      <c r="C198" t="s">
+        <v>1219</v>
+      </c>
+      <c r="D198" t="s">
+        <v>1220</v>
+      </c>
+    </row>
+    <row r="199" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A199" s="9" t="s">
+        <v>1249</v>
+      </c>
+      <c r="B199" t="s">
+        <v>962</v>
+      </c>
+      <c r="C199" t="s">
+        <v>1221</v>
+      </c>
+      <c r="D199" t="s">
+        <v>1222</v>
+      </c>
+    </row>
+    <row r="200" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A200" s="9" t="s">
+        <v>1250</v>
+      </c>
+      <c r="B200" t="s">
+        <v>962</v>
+      </c>
+      <c r="C200" t="s">
+        <v>1223</v>
+      </c>
+      <c r="D200" t="s">
+        <v>1224</v>
+      </c>
+    </row>
+    <row r="201" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A201" s="9" t="s">
+        <v>1251</v>
+      </c>
+      <c r="B201" t="s">
+        <v>962</v>
+      </c>
+      <c r="C201" t="s">
+        <v>1225</v>
+      </c>
+      <c r="D201" t="s">
+        <v>1226</v>
+      </c>
+    </row>
+    <row r="202" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A202" s="9" t="s">
+        <v>1252</v>
+      </c>
+      <c r="B202" t="s">
+        <v>962</v>
+      </c>
+      <c r="C202" t="s">
+        <v>1227</v>
+      </c>
+      <c r="D202" t="s">
+        <v>1228</v>
+      </c>
+    </row>
+    <row r="203" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A203" s="9" t="s">
+        <v>1253</v>
+      </c>
+      <c r="B203" t="s">
+        <v>962</v>
+      </c>
+      <c r="C203" t="s">
+        <v>1229</v>
+      </c>
+      <c r="D203" t="s">
+        <v>1230</v>
+      </c>
+    </row>
+    <row r="204" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A204" s="9" t="s">
+        <v>1254</v>
+      </c>
+      <c r="B204" t="s">
+        <v>962</v>
+      </c>
+      <c r="C204" t="s">
+        <v>1231</v>
+      </c>
+      <c r="D204" s="32">
+        <v>0.67291666666666661</v>
+      </c>
+    </row>
+    <row r="205" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A205" s="9" t="s">
+        <v>1255</v>
+      </c>
+      <c r="B205" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C205" t="s">
+        <v>1233</v>
+      </c>
+      <c r="D205" t="s">
+        <v>1234</v>
+      </c>
+    </row>
+    <row r="206" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A206" s="9" t="s">
+        <v>1256</v>
+      </c>
+      <c r="B206" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C206" t="s">
+        <v>289</v>
+      </c>
+      <c r="D206">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="207" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A207" s="9" t="s">
+        <v>1257</v>
+      </c>
+      <c r="B207" t="s">
+        <v>1232</v>
+      </c>
+      <c r="C207" t="s">
+        <v>394</v>
+      </c>
+      <c r="D207">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="208" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A208" s="9" t="s">
+        <v>1258</v>
+      </c>
+      <c r="B208" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C208" t="s">
+        <v>1236</v>
+      </c>
+      <c r="D208" t="s">
+        <v>1237</v>
+      </c>
+    </row>
+    <row r="209" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A209" s="9" t="s">
+        <v>1259</v>
+      </c>
+      <c r="B209" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C209" t="s">
+        <v>1238</v>
+      </c>
+      <c r="D209" t="s">
+        <v>16</v>
+      </c>
+    </row>
+    <row r="210" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A210" s="9" t="s">
+        <v>1260</v>
+      </c>
+      <c r="B210" t="s">
+        <v>1235</v>
+      </c>
+      <c r="C210" t="s">
+        <v>1239</v>
+      </c>
+      <c r="D210" t="s">
+        <v>1240</v>
+      </c>
+    </row>
+    <row r="211" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A211" s="9" t="s">
+        <v>1261</v>
+      </c>
+      <c r="B211" t="s">
+        <v>982</v>
+      </c>
+      <c r="C211" t="s">
+        <v>983</v>
+      </c>
+      <c r="D211" t="s">
+        <v>1242</v>
+      </c>
+    </row>
+    <row r="212" spans="1:4" x14ac:dyDescent="0.25">
+      <c r="A212" s="9" t="s">
+        <v>1262</v>
+      </c>
+      <c r="B212" t="s">
+        <v>982</v>
+      </c>
+      <c r="C212" t="s">
+        <v>985</v>
+      </c>
+      <c r="D212" t="s">
+        <v>1241</v>
+      </c>
+    </row>
+  </sheetData>
+  <phoneticPr fontId="2" type="noConversion"/>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{A3F38F52-AEA6-4DE9-AD73-40A77B36D22E}">
   <dimension ref="A1:M50"/>
   <sheetViews>
-    <sheetView zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="J8" sqref="J8"/>
+    <sheetView topLeftCell="B1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="B9" sqref="A1:M50"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -5385,12 +10523,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{26E5A6C1-5790-4229-BD6D-6C1D6B8C5F92}">
   <dimension ref="A1:D993"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A962" workbookViewId="0">
-      <selection activeCell="A989" sqref="A989"/>
+    <sheetView topLeftCell="A298" workbookViewId="0">
+      <selection activeCell="B30" sqref="B30"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19107,7 +24245,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{DA65A9EE-F120-4224-BB6A-B1C8A3207C0B}">
   <dimension ref="A1:D4"/>
   <sheetViews>
@@ -19146,7 +24284,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet4.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{082A44F4-F353-40AF-86C8-63795D4AA594}">
   <dimension ref="A1:J1"/>
   <sheetViews>
@@ -19193,12 +24331,12 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet5.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet7.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{139DF530-8D05-409C-BC83-56BCC2986C8B}">
   <dimension ref="B1:C9"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="C1" sqref="C1"/>
+      <selection activeCell="C7" sqref="C7"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -19283,7 +24421,7 @@
 </worksheet>
 </file>
 
-<file path=xl/worksheets/sheet6.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=xl/worksheets/sheet8.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{7FB7A543-B053-4FEF-8DF9-350D0D8F8008}">
   <dimension ref="B1:C10"/>
   <sheetViews>
